--- a/Code/Results/Cases/Case_5_6/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_6/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,844 +409,994 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.27966719040349</v>
+        <v>29.60365288162757</v>
       </c>
       <c r="C2">
-        <v>16.1572595501347</v>
+        <v>17.05410703502872</v>
       </c>
       <c r="D2">
-        <v>7.358935137125663</v>
+        <v>5.170965909222361</v>
       </c>
       <c r="E2">
-        <v>8.47403378061777</v>
+        <v>5.631849147083353</v>
       </c>
       <c r="F2">
-        <v>63.33928119669464</v>
+        <v>41.49293326998573</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.813593989103921</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.18268183987749</v>
+        <v>7.758166866812517</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>13.54572070562891</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.36177223159537</v>
+        <v>27.58318679699658</v>
       </c>
       <c r="C3">
-        <v>14.93738046441106</v>
+        <v>15.8375778985886</v>
       </c>
       <c r="D3">
-        <v>7.008943871929787</v>
+        <v>5.211062263394694</v>
       </c>
       <c r="E3">
-        <v>8.002564139448436</v>
+        <v>5.666783217876874</v>
       </c>
       <c r="F3">
-        <v>59.36523172576626</v>
+        <v>39.41272198803345</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.351818912484163</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.27804652519025</v>
+        <v>7.474436082922768</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>13.7547956351177</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.13784925928074</v>
+        <v>26.33174911281369</v>
       </c>
       <c r="C4">
-        <v>14.15934007229246</v>
+        <v>15.0560663825331</v>
       </c>
       <c r="D4">
-        <v>6.79297021608314</v>
+        <v>5.240258295869069</v>
       </c>
       <c r="E4">
-        <v>7.71149172700287</v>
+        <v>5.689814234437071</v>
       </c>
       <c r="F4">
-        <v>56.87307670487113</v>
+        <v>38.13582115413919</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.068834950881065</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.70047713458654</v>
+        <v>7.30234479538351</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>13.88818312458431</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.62696266272239</v>
+        <v>25.81142918111341</v>
       </c>
       <c r="C5">
-        <v>13.83459916864901</v>
+        <v>14.72868598027144</v>
       </c>
       <c r="D5">
-        <v>6.704636646608854</v>
+        <v>5.253213789470277</v>
       </c>
       <c r="E5">
-        <v>7.592500270624473</v>
+        <v>5.699589002545139</v>
       </c>
       <c r="F5">
-        <v>55.84418052229064</v>
+        <v>37.6158551990352</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.953647964649299</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.45928898202508</v>
+        <v>7.232790033724851</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>13.94375412354416</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.54138526753671</v>
+        <v>25.72440958890851</v>
       </c>
       <c r="C6">
-        <v>13.78020177066524</v>
+        <v>14.67378069684422</v>
       </c>
       <c r="D6">
-        <v>6.68994838343091</v>
+        <v>5.255426411825627</v>
       </c>
       <c r="E6">
-        <v>7.572720494557111</v>
+        <v>5.701235397851956</v>
       </c>
       <c r="F6">
-        <v>55.67252762805028</v>
+        <v>37.52954926066871</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.934529620722035</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.41888103691621</v>
+        <v>7.22127656263624</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>13.95305381350771</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.13100894823219</v>
+        <v>26.32477362735155</v>
       </c>
       <c r="C7">
-        <v>14.15499208647499</v>
+        <v>15.05168755833335</v>
       </c>
       <c r="D7">
-        <v>6.79178027569812</v>
+        <v>5.240428850157562</v>
       </c>
       <c r="E7">
-        <v>7.70988843398109</v>
+        <v>5.689944493562194</v>
       </c>
       <c r="F7">
-        <v>56.85925467443861</v>
+        <v>38.12880668814476</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.067280951877496</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.69724829199323</v>
+        <v>7.301404370762345</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>13.88892771169057</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.62767954364555</v>
+        <v>28.88305102682122</v>
       </c>
       <c r="C8">
-        <v>15.74242467832124</v>
+        <v>16.64168196801936</v>
       </c>
       <c r="D8">
-        <v>7.238442898854138</v>
+        <v>5.183781882602204</v>
       </c>
       <c r="E8">
-        <v>8.311800628413572</v>
+        <v>5.643560902990287</v>
       </c>
       <c r="F8">
-        <v>61.97960114240473</v>
+        <v>40.77573555482695</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.654245285681958</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.87518678799315</v>
+        <v>7.659917103258089</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>13.61673796969334</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.18228825206224</v>
+        <v>33.88619342156468</v>
       </c>
       <c r="C9">
-        <v>18.64523140482793</v>
+        <v>19.4965694005238</v>
       </c>
       <c r="D9">
-        <v>8.109642361986655</v>
+        <v>5.113818247516858</v>
       </c>
       <c r="E9">
-        <v>9.501190800933825</v>
+        <v>5.565588471112928</v>
       </c>
       <c r="F9">
-        <v>71.63552903240775</v>
+        <v>45.96406774186833</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.81207504563385</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>14.02338697218643</v>
+        <v>8.378724974091751</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>13.12543726108331</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.36584433282908</v>
+        <v>37.32601737333197</v>
       </c>
       <c r="C10">
-        <v>20.68390213222163</v>
+        <v>21.45146225597339</v>
       </c>
       <c r="D10">
-        <v>8.755024715968428</v>
+        <v>5.095263949747618</v>
       </c>
       <c r="E10">
-        <v>10.53366066162758</v>
+        <v>5.516960826592729</v>
       </c>
       <c r="F10">
-        <v>78.56344925083035</v>
+        <v>49.78047798337231</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.67421756923738</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>15.52626772461942</v>
+        <v>8.916387154791373</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>12.79524009638619</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.79223208521844</v>
+        <v>38.84664790546223</v>
       </c>
       <c r="C11">
-        <v>21.60086867516105</v>
+        <v>22.31459764710643</v>
       </c>
       <c r="D11">
-        <v>9.052622810707184</v>
+        <v>5.096054892915009</v>
       </c>
       <c r="E11">
-        <v>10.99618849039338</v>
+        <v>5.496933422844958</v>
       </c>
       <c r="F11">
-        <v>81.70407659303683</v>
+        <v>51.52298460661048</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>12.07194487248563</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>16.20032662539705</v>
+        <v>9.1635150988775</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>12.65322870740449</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.3306995898876</v>
+        <v>39.41685384393728</v>
       </c>
       <c r="C12">
-        <v>21.94768324226235</v>
+        <v>22.63816096157412</v>
       </c>
       <c r="D12">
-        <v>9.166228866728481</v>
+        <v>5.097891963520211</v>
       </c>
       <c r="E12">
-        <v>11.17078660134721</v>
+        <v>5.489673513939189</v>
       </c>
       <c r="F12">
-        <v>82.8968513768865</v>
+        <v>52.18449638634235</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>12.22373098679131</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>16.45492431061989</v>
+        <v>9.257537125096425</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>12.60080269206522</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.21477809370833</v>
+        <v>39.29428678725166</v>
       </c>
       <c r="C13">
-        <v>21.87298906084447</v>
+        <v>22.56861358160962</v>
       </c>
       <c r="D13">
-        <v>9.141714746743546</v>
+        <v>5.097424229129899</v>
       </c>
       <c r="E13">
-        <v>11.1331994142696</v>
+        <v>5.4912222342255</v>
       </c>
       <c r="F13">
-        <v>82.63821030918493</v>
+        <v>52.04193929135913</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>12.19098138987625</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>16.40010765142515</v>
+        <v>9.237266669336407</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>12.61203030252295</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.83655597377863</v>
+        <v>38.8936671242714</v>
       </c>
       <c r="C14">
-        <v>21.62940258654775</v>
+        <v>22.34128027052579</v>
       </c>
       <c r="D14">
-        <v>9.061948680602612</v>
+        <v>5.096173892388966</v>
       </c>
       <c r="E14">
-        <v>11.01056067579265</v>
+        <v>5.496329502329466</v>
       </c>
       <c r="F14">
-        <v>81.80198697389089</v>
+        <v>51.577369035739</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>12.08440620826908</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>16.22128081281848</v>
+        <v>9.171240978328543</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>12.64888738138707</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.6047156729148</v>
+        <v>38.64756763643493</v>
       </c>
       <c r="C15">
-        <v>21.48018071653624</v>
+        <v>22.20161940427935</v>
       </c>
       <c r="D15">
-        <v>9.013220138605311</v>
+        <v>5.095615062156153</v>
       </c>
       <c r="E15">
-        <v>10.93538527206148</v>
+        <v>5.499500816224513</v>
       </c>
       <c r="F15">
-        <v>81.29006217020014</v>
+        <v>51.29304950027144</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>12.01929238633035</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>16.11168374696961</v>
+        <v>9.13085844044722</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>12.6716451252025</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.27230443692216</v>
+        <v>37.22581086957685</v>
       </c>
       <c r="C16">
-        <v>20.62385263081955</v>
+        <v>21.39456671260343</v>
       </c>
       <c r="D16">
-        <v>8.735683128078843</v>
+        <v>5.095415241813487</v>
       </c>
       <c r="E16">
-        <v>10.50332775564229</v>
+        <v>5.518313648914841</v>
       </c>
       <c r="F16">
-        <v>78.35821655748376</v>
+        <v>49.66678722329709</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.64836612583987</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>15.48208133766874</v>
+        <v>8.900293519178545</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>12.80469957474819</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.45025698389361</v>
+        <v>36.34277199762759</v>
       </c>
       <c r="C17">
-        <v>20.09653980310896</v>
+        <v>20.89307978123275</v>
       </c>
       <c r="D17">
-        <v>8.566659146807174</v>
+        <v>5.097796523774308</v>
       </c>
       <c r="E17">
-        <v>10.236748921906</v>
+        <v>5.530405819277203</v>
       </c>
       <c r="F17">
-        <v>76.55867823512951</v>
+        <v>48.67121256311285</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.42246427121368</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>15.09384506214065</v>
+        <v>8.759543140956797</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>12.88853326057035</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.97527694324548</v>
+        <v>35.83066342988717</v>
       </c>
       <c r="C18">
-        <v>19.79218352122285</v>
+        <v>20.60214332776581</v>
       </c>
       <c r="D18">
-        <v>8.469793391907581</v>
+        <v>5.100020717074606</v>
       </c>
       <c r="E18">
-        <v>10.08271285623174</v>
+        <v>5.537556344258228</v>
       </c>
       <c r="F18">
-        <v>75.52238076249614</v>
+        <v>48.09912744344626</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.29302320125949</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>14.86958509899</v>
+        <v>8.678820240223144</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>12.9375112323543</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.81404685483622</v>
+        <v>35.6565296432853</v>
       </c>
       <c r="C19">
-        <v>19.68892289098014</v>
+        <v>20.50319565545136</v>
       </c>
       <c r="D19">
-        <v>8.437048165570602</v>
+        <v>5.10091467754546</v>
       </c>
       <c r="E19">
-        <v>10.03042471487801</v>
+        <v>5.540010329691031</v>
       </c>
       <c r="F19">
-        <v>75.17121664516611</v>
+        <v>47.90550423549145</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.24927155092409</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>14.79347076336477</v>
+        <v>8.651527146368711</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>12.9542201215763</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.5379794174787</v>
+        <v>36.43720368127978</v>
       </c>
       <c r="C20">
-        <v>20.15277585326569</v>
+        <v>20.94671890650693</v>
       </c>
       <c r="D20">
-        <v>8.58461345093896</v>
+        <v>5.097453171492124</v>
       </c>
       <c r="E20">
-        <v>10.26519676523261</v>
+        <v>5.529098209643026</v>
       </c>
       <c r="F20">
-        <v>76.75035281741157</v>
+        <v>48.77713245512638</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.4464586678301</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>15.1352677696966</v>
+        <v>8.774501713623332</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>12.87952934871471</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.94768090058694</v>
+        <v>39.01148495073952</v>
       </c>
       <c r="C21">
-        <v>21.70095128659925</v>
+        <v>22.40813860542643</v>
       </c>
       <c r="D21">
-        <v>9.085349967882788</v>
+        <v>5.096497577306534</v>
       </c>
       <c r="E21">
-        <v>11.04659321705559</v>
+        <v>5.494820371890603</v>
       </c>
       <c r="F21">
-        <v>82.04753978245047</v>
+        <v>51.71377218952832</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>12.11567434448776</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>16.27381762499567</v>
+        <v>9.190621615824664</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>12.63802332495423</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.51377397569567</v>
+        <v>40.66159351241642</v>
       </c>
       <c r="C22">
-        <v>22.71103968746796</v>
+        <v>23.34438317104898</v>
       </c>
       <c r="D22">
-        <v>9.418163334257676</v>
+        <v>5.104957875978586</v>
       </c>
       <c r="E22">
-        <v>11.55438322093615</v>
+        <v>5.474321033081261</v>
       </c>
       <c r="F22">
-        <v>85.60194497283534</v>
+        <v>53.64327578481947</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>12.56017554942656</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>17.01459723623697</v>
+        <v>9.465205695206125</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>12.48817043174691</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.67813680484741</v>
+        <v>39.78357872980973</v>
       </c>
       <c r="C23">
-        <v>22.17166174066659</v>
+        <v>22.84624003917665</v>
       </c>
       <c r="D23">
-        <v>9.239887070902615</v>
+        <v>5.099532745656621</v>
       </c>
       <c r="E23">
-        <v>11.28344084889363</v>
+        <v>5.485078821213583</v>
       </c>
       <c r="F23">
-        <v>83.69036134010487</v>
+        <v>52.61220751261789</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>12.32212276980166</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>16.61924239290273</v>
+        <v>9.318380779711367</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>12.56735055033069</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.49832760513005</v>
+        <v>36.39452499251974</v>
       </c>
       <c r="C24">
-        <v>20.12735534142083</v>
+        <v>20.92247686849999</v>
       </c>
       <c r="D24">
-        <v>8.576495373386976</v>
+        <v>5.097605752904294</v>
       </c>
       <c r="E24">
-        <v>10.25233794775045</v>
+        <v>5.529688763081951</v>
       </c>
       <c r="F24">
-        <v>76.66370230469636</v>
+        <v>48.72924523959449</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.43560947951946</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>15.11654391071044</v>
+        <v>8.767738336384886</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>12.88359759755789</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.98255174487167</v>
+        <v>32.57617600481798</v>
       </c>
       <c r="C25">
-        <v>17.87930415616014</v>
+        <v>18.7507208509485</v>
       </c>
       <c r="D25">
-        <v>7.873782952462337</v>
+        <v>5.1276082433822</v>
       </c>
       <c r="E25">
-        <v>9.165508100207306</v>
+        <v>5.585223626910755</v>
       </c>
       <c r="F25">
-        <v>69.05912285115427</v>
+        <v>44.56078855040567</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.49758687464714</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>13.45741737140494</v>
+        <v>8.182660433822118</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>13.25337030743675</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_6/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_6/res_line/loading_percent.xlsx
@@ -421,22 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>29.60365288162757</v>
+        <v>27.89224384145723</v>
       </c>
       <c r="C2">
-        <v>17.05410703502872</v>
+        <v>25.53521796938517</v>
       </c>
       <c r="D2">
-        <v>5.170965909222361</v>
+        <v>2.832171597702205</v>
       </c>
       <c r="E2">
-        <v>5.631849147083353</v>
+        <v>30.65112964922567</v>
       </c>
       <c r="F2">
-        <v>41.49293326998573</v>
+        <v>35.76045785144341</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>19.6918191149924</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -445,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.758166866812517</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.54572070562891</v>
+        <v>10.43052436411695</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,22 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>27.58318679699658</v>
+        <v>25.8690973559204</v>
       </c>
       <c r="C3">
-        <v>15.8375778985886</v>
+        <v>23.64811534727382</v>
       </c>
       <c r="D3">
-        <v>5.211062263394694</v>
+        <v>2.901995547316055</v>
       </c>
       <c r="E3">
-        <v>5.666783217876874</v>
+        <v>28.2856695086953</v>
       </c>
       <c r="F3">
-        <v>39.41272198803345</v>
+        <v>33.51157788841211</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>18.86234232340837</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -486,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.474436082922768</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.7547956351177</v>
+        <v>10.75534152705677</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,22 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>26.33174911281369</v>
+        <v>24.56886541719781</v>
       </c>
       <c r="C4">
-        <v>15.0560663825331</v>
+        <v>22.43887115665011</v>
       </c>
       <c r="D4">
-        <v>5.240258295869069</v>
+        <v>2.950778573536812</v>
       </c>
       <c r="E4">
-        <v>5.689814234437071</v>
+        <v>26.78223290159744</v>
       </c>
       <c r="F4">
-        <v>38.13582115413919</v>
+        <v>32.11673084449058</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>18.37218320039116</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -527,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.30234479538351</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.88818312458431</v>
+        <v>10.95620893751901</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,22 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>25.81142918111341</v>
+        <v>24.024011323876</v>
       </c>
       <c r="C5">
-        <v>14.72868598027144</v>
+        <v>21.9329331374509</v>
       </c>
       <c r="D5">
-        <v>5.253213789470277</v>
+        <v>2.971934241416461</v>
       </c>
       <c r="E5">
-        <v>5.699589002545139</v>
+        <v>26.15589780263414</v>
       </c>
       <c r="F5">
-        <v>37.6158551990352</v>
+        <v>31.54488077637458</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>18.17714040642553</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -568,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.232790033724851</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.94375412354416</v>
+        <v>11.03852035811757</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,22 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>25.72440958890851</v>
+        <v>23.93262154749294</v>
       </c>
       <c r="C6">
-        <v>14.67378069684422</v>
+        <v>21.84811538049378</v>
       </c>
       <c r="D6">
-        <v>5.255426411825627</v>
+        <v>2.975518788325037</v>
       </c>
       <c r="E6">
-        <v>5.701235397851956</v>
+        <v>26.05104692988678</v>
       </c>
       <c r="F6">
-        <v>37.52954926066871</v>
+        <v>31.4497241916491</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>18.14503500080435</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -609,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.22127656263624</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.95305381350771</v>
+        <v>11.05221836368466</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,22 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>26.32477362735155</v>
+        <v>24.56157856974056</v>
       </c>
       <c r="C7">
-        <v>15.05168755833335</v>
+        <v>22.43210174805364</v>
       </c>
       <c r="D7">
-        <v>5.240428850157562</v>
+        <v>2.951058968644663</v>
       </c>
       <c r="E7">
-        <v>5.689944493562194</v>
+        <v>26.77384232267411</v>
       </c>
       <c r="F7">
-        <v>38.12880668814476</v>
+        <v>32.10903233721145</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>18.36953387339548</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -650,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.301404370762345</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.88892771169057</v>
+        <v>10.95731704758016</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,22 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>28.88305102682122</v>
+        <v>27.20644188986287</v>
       </c>
       <c r="C8">
-        <v>16.64168196801936</v>
+        <v>24.89475194270242</v>
       </c>
       <c r="D8">
-        <v>5.183781882602204</v>
+        <v>2.854880818658504</v>
       </c>
       <c r="E8">
-        <v>5.643560902990287</v>
+        <v>29.84557149924319</v>
       </c>
       <c r="F8">
-        <v>40.77573555482695</v>
+        <v>34.98794518070537</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>19.40176123970552</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -691,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.659917103258089</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.61673796969334</v>
+        <v>10.54228582856616</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,22 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>33.88619342156468</v>
+        <v>31.95390871059898</v>
       </c>
       <c r="C9">
-        <v>19.4965694005238</v>
+        <v>29.34614839725322</v>
       </c>
       <c r="D9">
-        <v>5.113818247516858</v>
+        <v>2.725064155850748</v>
       </c>
       <c r="E9">
-        <v>5.565588471112928</v>
+        <v>35.50888037415339</v>
       </c>
       <c r="F9">
-        <v>45.96406774186833</v>
+        <v>40.71936342725972</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>21.58589836896723</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -732,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.378724974091751</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>13.12543726108331</v>
+        <v>9.734920048140626</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,22 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>37.32601737333197</v>
+        <v>35.20899690619861</v>
       </c>
       <c r="C10">
-        <v>21.45146225597339</v>
+        <v>32.42480879410017</v>
       </c>
       <c r="D10">
-        <v>5.095263949747618</v>
+        <v>2.686437085830508</v>
       </c>
       <c r="E10">
-        <v>5.516960826592729</v>
+        <v>39.52608479505155</v>
       </c>
       <c r="F10">
-        <v>49.78047798337231</v>
+        <v>45.04927224049077</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>23.46137708826828</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -773,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.916387154791373</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.79524009638619</v>
+        <v>9.138295400492124</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,22 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>38.84664790546223</v>
+        <v>36.64903289826678</v>
       </c>
       <c r="C11">
-        <v>22.31459764710643</v>
+        <v>33.79468170902415</v>
       </c>
       <c r="D11">
-        <v>5.096054892915009</v>
+        <v>2.802270501529621</v>
       </c>
       <c r="E11">
-        <v>5.496933422844958</v>
+        <v>41.34489862209004</v>
       </c>
       <c r="F11">
-        <v>51.52298460661048</v>
+        <v>47.0090561452632</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>24.50204320246744</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -814,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.1635150988775</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.65322870740449</v>
+        <v>8.864282440005471</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,22 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>39.41685384393728</v>
+        <v>37.18951412301791</v>
       </c>
       <c r="C12">
-        <v>22.63816096157412</v>
+        <v>34.31018023648721</v>
       </c>
       <c r="D12">
-        <v>5.097891963520211</v>
+        <v>2.868333720088487</v>
       </c>
       <c r="E12">
-        <v>5.489673513939189</v>
+        <v>42.03487325557064</v>
       </c>
       <c r="F12">
-        <v>52.18449638634235</v>
+        <v>47.75144517121521</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>24.89791480696733</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -855,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.257537125096425</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.60080269206522</v>
+        <v>8.759978261952378</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,22 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>39.29428678725166</v>
+        <v>37.07330772437379</v>
       </c>
       <c r="C13">
-        <v>22.56861358160962</v>
+        <v>34.19928117885119</v>
       </c>
       <c r="D13">
-        <v>5.097424229129899</v>
+        <v>2.854046627931922</v>
       </c>
       <c r="E13">
-        <v>5.4912222342255</v>
+        <v>41.8861737691396</v>
       </c>
       <c r="F13">
-        <v>52.04193929135913</v>
+        <v>47.59151468370187</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>24.8125585108391</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -896,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.237266669336407</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.61203030252295</v>
+        <v>8.782468888334275</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,22 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>38.8936671242714</v>
+        <v>36.69358868545579</v>
       </c>
       <c r="C14">
-        <v>22.34128027052579</v>
+        <v>33.83714944726741</v>
       </c>
       <c r="D14">
-        <v>5.096173892388966</v>
+        <v>2.807679439986999</v>
       </c>
       <c r="E14">
-        <v>5.496329502329466</v>
+        <v>41.40162213123212</v>
       </c>
       <c r="F14">
-        <v>51.577369035739</v>
+        <v>47.07011630776556</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>24.53456929242983</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -937,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.171240978328543</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.64888738138707</v>
+        <v>8.855713119123976</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,22 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>38.64756763643493</v>
+        <v>36.46040531118592</v>
       </c>
       <c r="C15">
-        <v>22.20161940427935</v>
+        <v>33.61495007675979</v>
       </c>
       <c r="D15">
-        <v>5.095615062156153</v>
+        <v>2.779445107277638</v>
       </c>
       <c r="E15">
-        <v>5.499500816224513</v>
+        <v>41.10506468584509</v>
       </c>
       <c r="F15">
-        <v>51.29304950027144</v>
+        <v>46.75083704250195</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>24.36455997979453</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -978,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.13085844044722</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.6716451252025</v>
+        <v>8.900501670395053</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,22 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>37.22581086957685</v>
+        <v>35.11415047387673</v>
       </c>
       <c r="C16">
-        <v>21.39456671260343</v>
+        <v>32.33476151847924</v>
       </c>
       <c r="D16">
-        <v>5.095415241813487</v>
+        <v>2.686804271670232</v>
       </c>
       <c r="E16">
-        <v>5.518313648914841</v>
+        <v>39.40724449565233</v>
       </c>
       <c r="F16">
-        <v>49.66678722329709</v>
+        <v>44.92112993682738</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>23.39355941073875</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1019,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.900293519178545</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.80469957474819</v>
+        <v>9.156136380598747</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,22 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>36.34277199762759</v>
+        <v>34.27850018936292</v>
       </c>
       <c r="C17">
-        <v>20.89307978123275</v>
+        <v>31.54231116136842</v>
       </c>
       <c r="D17">
-        <v>5.097796523774308</v>
+        <v>2.692148975013013</v>
       </c>
       <c r="E17">
-        <v>5.530405819277203</v>
+        <v>38.36504639182236</v>
       </c>
       <c r="F17">
-        <v>48.67121256311285</v>
+        <v>43.79718323619667</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>22.79996283749883</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1060,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.759543140956797</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.88853326057035</v>
+        <v>9.312177880031903</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,22 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>35.83066342988717</v>
+        <v>33.79395079730131</v>
       </c>
       <c r="C18">
-        <v>20.60214332776581</v>
+        <v>31.08354948193687</v>
       </c>
       <c r="D18">
-        <v>5.100020717074606</v>
+        <v>2.696912017307172</v>
       </c>
       <c r="E18">
-        <v>5.537556344258228</v>
+        <v>37.76461027725734</v>
       </c>
       <c r="F18">
-        <v>48.09912744344626</v>
+        <v>43.14966030493462</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>22.53724894667092</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1101,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.678820240223144</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.9375112323543</v>
+        <v>9.401694381719757</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,22 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>35.6565296432853</v>
+        <v>33.62919217798502</v>
       </c>
       <c r="C19">
-        <v>20.50319565545136</v>
+        <v>30.92768009769983</v>
       </c>
       <c r="D19">
-        <v>5.10091467754546</v>
+        <v>2.698797289575111</v>
       </c>
       <c r="E19">
-        <v>5.540010329691031</v>
+        <v>37.56107715196592</v>
       </c>
       <c r="F19">
-        <v>47.90550423549145</v>
+        <v>42.9301943463528</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>22.44981463640258</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1142,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.651527146368711</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.9542201215763</v>
+        <v>9.431967747894014</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,22 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>36.43720368127978</v>
+        <v>34.36785405854955</v>
       </c>
       <c r="C20">
-        <v>20.94671890650693</v>
+        <v>31.62696815066298</v>
       </c>
       <c r="D20">
-        <v>5.097453171492124</v>
+        <v>2.691401001045544</v>
       </c>
       <c r="E20">
-        <v>5.529098209643026</v>
+        <v>38.47607682449612</v>
       </c>
       <c r="F20">
-        <v>48.77713245512638</v>
+        <v>43.91692808665655</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>22.8630972389095</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1183,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.774501713623332</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.87952934871471</v>
+        <v>9.295592429770604</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,22 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>39.01148495073952</v>
+        <v>36.80524309225987</v>
       </c>
       <c r="C21">
-        <v>22.40813860542643</v>
+        <v>33.94359370970107</v>
       </c>
       <c r="D21">
-        <v>5.096497577306534</v>
+        <v>2.821263155685663</v>
       </c>
       <c r="E21">
-        <v>5.494820371890603</v>
+        <v>41.54389039004901</v>
       </c>
       <c r="F21">
-        <v>51.71377218952832</v>
+        <v>47.223240701485</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>24.61616365802249</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1224,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.190621615824664</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.63802332495423</v>
+        <v>8.834215592678039</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,22 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>40.66159351241642</v>
+        <v>38.37073018774941</v>
       </c>
       <c r="C22">
-        <v>23.34438317104898</v>
+        <v>35.43949575513994</v>
       </c>
       <c r="D22">
-        <v>5.104957875978586</v>
+        <v>3.016186424538375</v>
       </c>
       <c r="E22">
-        <v>5.474321033081261</v>
+        <v>43.55771486501173</v>
       </c>
       <c r="F22">
-        <v>53.64327578481947</v>
+        <v>49.38679053775825</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>25.77302394925639</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1265,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.465205695206125</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.48817043174691</v>
+        <v>8.529438670042039</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,22 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>39.78357872980973</v>
+        <v>37.53731133210018</v>
       </c>
       <c r="C23">
-        <v>22.84624003917665</v>
+        <v>34.64230568001582</v>
       </c>
       <c r="D23">
-        <v>5.099532745656621</v>
+        <v>2.911368342441</v>
       </c>
       <c r="E23">
-        <v>5.485078821213583</v>
+        <v>42.48109190442835</v>
       </c>
       <c r="F23">
-        <v>52.61220751261789</v>
+        <v>48.23112682682929</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>25.15416912206458</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1306,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.318380779711367</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.56735055033069</v>
+        <v>8.692458214073199</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,22 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>36.39452499251974</v>
+        <v>34.3274700905161</v>
       </c>
       <c r="C24">
-        <v>20.92247686849999</v>
+        <v>31.58870468796374</v>
       </c>
       <c r="D24">
-        <v>5.097605752904294</v>
+        <v>2.691733941375474</v>
       </c>
       <c r="E24">
-        <v>5.529688763081951</v>
+        <v>38.42588407579172</v>
       </c>
       <c r="F24">
-        <v>48.72924523959449</v>
+        <v>43.86279576860355</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>22.83455325435763</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1347,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.767738336384886</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.88359759755789</v>
+        <v>9.303091303087614</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,22 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>32.57617600481798</v>
+        <v>30.71334671749554</v>
       </c>
       <c r="C25">
-        <v>18.7507208509485</v>
+        <v>28.17878994886883</v>
       </c>
       <c r="D25">
-        <v>5.1276082433822</v>
+        <v>2.75199226920539</v>
       </c>
       <c r="E25">
-        <v>5.585223626910755</v>
+        <v>34.00842044304628</v>
       </c>
       <c r="F25">
-        <v>44.56078855040567</v>
+        <v>39.10715717819856</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>20.97646300240387</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1388,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.182660433822118</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>13.25337030743675</v>
+        <v>9.953360150729807</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_6/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_6/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>27.89224384145723</v>
+        <v>16.86326320006514</v>
       </c>
       <c r="C2">
-        <v>25.53521796938517</v>
+        <v>14.03311813798708</v>
       </c>
       <c r="D2">
-        <v>2.832171597702205</v>
+        <v>4.67553686572749</v>
       </c>
       <c r="E2">
-        <v>30.65112964922567</v>
+        <v>16.49936937945428</v>
       </c>
       <c r="F2">
-        <v>35.76045785144341</v>
+        <v>30.04103356718291</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
-        <v>19.6918191149924</v>
+        <v>21.78920218704911</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>10.43052436411695</v>
+        <v>16.63493714321157</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>25.8690973559204</v>
+        <v>16.09950608411895</v>
       </c>
       <c r="C3">
-        <v>23.64811534727382</v>
+        <v>13.20107851691508</v>
       </c>
       <c r="D3">
-        <v>2.901995547316055</v>
+        <v>4.705322109001955</v>
       </c>
       <c r="E3">
-        <v>28.2856695086953</v>
+        <v>15.55653740869772</v>
       </c>
       <c r="F3">
-        <v>33.51157788841211</v>
+        <v>29.53962476997393</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
-        <v>18.86234232340837</v>
+        <v>21.71450993813013</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>10.75534152705677</v>
+        <v>16.71323766419159</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>24.56886541719781</v>
+        <v>15.6165365790916</v>
       </c>
       <c r="C4">
-        <v>22.43887115665011</v>
+        <v>12.66614278142704</v>
       </c>
       <c r="D4">
-        <v>2.950778573536812</v>
+        <v>4.724737553455235</v>
       </c>
       <c r="E4">
-        <v>26.78223290159744</v>
+        <v>14.9537146056006</v>
       </c>
       <c r="F4">
-        <v>32.11673084449058</v>
+        <v>29.24008450748608</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
-        <v>18.37218320039116</v>
+        <v>21.67630736357052</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>10.95620893751901</v>
+        <v>16.7632661077178</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>24.024011323876</v>
+        <v>15.4165069466694</v>
       </c>
       <c r="C5">
-        <v>21.9329331374509</v>
+        <v>12.44229443434551</v>
       </c>
       <c r="D5">
-        <v>2.971934241416461</v>
+        <v>4.732931184931721</v>
       </c>
       <c r="E5">
-        <v>26.15589780263414</v>
+        <v>14.70231493588561</v>
       </c>
       <c r="F5">
-        <v>31.54488077637458</v>
+        <v>29.12027612849793</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
-        <v>18.17714040642553</v>
+        <v>21.66266416984451</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.03852035811757</v>
+        <v>16.78414567939432</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23.93262154749294</v>
+        <v>15.38310782455767</v>
       </c>
       <c r="C6">
-        <v>21.84811538049378</v>
+        <v>12.40477725121553</v>
       </c>
       <c r="D6">
-        <v>2.975518788325037</v>
+        <v>4.734308694129534</v>
       </c>
       <c r="E6">
-        <v>26.05104692988678</v>
+        <v>14.66023221925074</v>
       </c>
       <c r="F6">
-        <v>31.4497241916491</v>
+        <v>29.10052298770863</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
-        <v>18.14503500080435</v>
+        <v>21.66051488219825</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.05221836368466</v>
+        <v>16.78764252021187</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>24.56157856974056</v>
+        <v>15.61385148993465</v>
       </c>
       <c r="C7">
-        <v>22.43210174805364</v>
+        <v>12.66314731696181</v>
       </c>
       <c r="D7">
-        <v>2.951058968644663</v>
+        <v>4.724846917373409</v>
       </c>
       <c r="E7">
-        <v>26.77384232267411</v>
+        <v>14.95034700444685</v>
       </c>
       <c r="F7">
-        <v>32.10903233721145</v>
+        <v>29.23845938126506</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
-        <v>18.36953387339548</v>
+        <v>21.67611557741753</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>10.95731704758016</v>
+        <v>16.76354570006199</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>27.20644188986287</v>
+        <v>16.60300276344202</v>
       </c>
       <c r="C8">
-        <v>24.89475194270242</v>
+        <v>13.75132760860096</v>
       </c>
       <c r="D8">
-        <v>2.854880818658504</v>
+        <v>4.685571788110286</v>
       </c>
       <c r="E8">
-        <v>29.84557149924319</v>
+        <v>16.17939195783057</v>
       </c>
       <c r="F8">
-        <v>34.98794518070537</v>
+        <v>29.86651887182369</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
-        <v>19.40176123970552</v>
+        <v>21.76185885306386</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>10.54228582856616</v>
+        <v>16.66153121405278</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>31.95390871059898</v>
+        <v>18.41988254978029</v>
       </c>
       <c r="C9">
-        <v>29.34614839725322</v>
+        <v>15.68778390903621</v>
       </c>
       <c r="D9">
-        <v>2.725064155850748</v>
+        <v>4.617579445633492</v>
       </c>
       <c r="E9">
-        <v>35.50888037415339</v>
+        <v>18.48260987542155</v>
       </c>
       <c r="F9">
-        <v>40.71936342725972</v>
+        <v>31.15683926971352</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
-        <v>21.58589836896723</v>
+        <v>21.99069407608192</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>9.734920048140626</v>
+        <v>16.47688076695082</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>35.20899690619861</v>
+        <v>19.6668466125248</v>
       </c>
       <c r="C10">
-        <v>32.42480879410017</v>
+        <v>16.9834811505773</v>
       </c>
       <c r="D10">
-        <v>2.686437085830508</v>
+        <v>4.57324683375428</v>
       </c>
       <c r="E10">
-        <v>39.52608479505155</v>
+        <v>20.14762134080832</v>
       </c>
       <c r="F10">
-        <v>45.04927224049077</v>
+        <v>32.13060688052058</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
-        <v>23.46137708826828</v>
+        <v>22.19553433515441</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>9.138295400492124</v>
+        <v>16.35048352457731</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>36.64903289826678</v>
+        <v>20.21292546750902</v>
       </c>
       <c r="C11">
-        <v>33.79468170902415</v>
+        <v>17.54442871298576</v>
       </c>
       <c r="D11">
-        <v>2.802270501529621</v>
+        <v>4.554327269562337</v>
       </c>
       <c r="E11">
-        <v>41.34489862209004</v>
+        <v>20.8636324526438</v>
       </c>
       <c r="F11">
-        <v>47.0090561452632</v>
+        <v>32.57707905736765</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
-        <v>24.50204320246744</v>
+        <v>22.29657491870482</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>8.864282440005471</v>
+        <v>16.29496772538405</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>37.18951412301791</v>
+        <v>20.41652675317806</v>
       </c>
       <c r="C12">
-        <v>34.31018023648721</v>
+        <v>17.75269737804442</v>
       </c>
       <c r="D12">
-        <v>2.868333720088487</v>
+        <v>4.547344847858403</v>
       </c>
       <c r="E12">
-        <v>42.03487325557064</v>
+        <v>21.12885469364625</v>
       </c>
       <c r="F12">
-        <v>47.75144517121521</v>
+        <v>32.746477391517</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
-        <v>24.89791480696733</v>
+        <v>22.33595195382016</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>8.759978261952378</v>
+        <v>16.27422853150778</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>37.07330772437379</v>
+        <v>20.37282133760514</v>
       </c>
       <c r="C13">
-        <v>34.19928117885119</v>
+        <v>17.70802830472552</v>
       </c>
       <c r="D13">
-        <v>2.854046627931922</v>
+        <v>4.548840499488057</v>
       </c>
       <c r="E13">
-        <v>41.8861737691396</v>
+        <v>21.07199681444409</v>
       </c>
       <c r="F13">
-        <v>47.59151468370187</v>
+        <v>32.70998251709078</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
-        <v>24.8125585108391</v>
+        <v>22.32742206977603</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>8.782468888334275</v>
+        <v>16.27868250921821</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>36.69358868545579</v>
+        <v>20.22974047279995</v>
       </c>
       <c r="C14">
-        <v>33.83714944726741</v>
+        <v>17.56164654247367</v>
       </c>
       <c r="D14">
-        <v>2.807679439986999</v>
+        <v>4.553749158419958</v>
       </c>
       <c r="E14">
-        <v>41.40162213123212</v>
+        <v>20.88557077964896</v>
       </c>
       <c r="F14">
-        <v>47.07011630776556</v>
+        <v>32.59100994671133</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
-        <v>24.53456929242983</v>
+        <v>22.29979223527027</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>8.855713119123976</v>
+        <v>16.29325582873647</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>36.46040531118592</v>
+        <v>20.14168044635809</v>
       </c>
       <c r="C15">
-        <v>33.61495007675979</v>
+        <v>17.47144162304754</v>
       </c>
       <c r="D15">
-        <v>2.779445107277638</v>
+        <v>4.55677963612174</v>
       </c>
       <c r="E15">
-        <v>41.10506468584509</v>
+        <v>20.77061022358257</v>
       </c>
       <c r="F15">
-        <v>46.75083704250195</v>
+        <v>32.51817357174709</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
-        <v>24.36455997979453</v>
+        <v>22.28301290865018</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>8.900501670395053</v>
+        <v>16.30221926869253</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>35.11415047387673</v>
+        <v>19.6307203331286</v>
       </c>
       <c r="C16">
-        <v>32.33476151847924</v>
+        <v>16.94624387798889</v>
       </c>
       <c r="D16">
-        <v>2.686804271670232</v>
+        <v>4.574508595819851</v>
       </c>
       <c r="E16">
-        <v>39.40724449565233</v>
+        <v>20.09999839105503</v>
       </c>
       <c r="F16">
-        <v>44.92112993682738</v>
+        <v>32.10148429507814</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
-        <v>23.39355941073875</v>
+        <v>22.18908800856398</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>9.156136380598747</v>
+        <v>16.35415136799237</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>34.27850018936292</v>
+        <v>19.31173138345702</v>
       </c>
       <c r="C17">
-        <v>31.54231116136842</v>
+        <v>16.6167153150177</v>
       </c>
       <c r="D17">
-        <v>2.692148975013013</v>
+        <v>4.585706082447154</v>
       </c>
       <c r="E17">
-        <v>38.36504639182236</v>
+        <v>19.67802134919618</v>
       </c>
       <c r="F17">
-        <v>43.79718323619667</v>
+        <v>31.84662989864033</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
-        <v>22.79996283749883</v>
+        <v>22.13347098353924</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>9.312177880031903</v>
+        <v>16.38651668687908</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>33.79395079730131</v>
+        <v>19.12627153843833</v>
       </c>
       <c r="C18">
-        <v>31.08354948193687</v>
+        <v>16.42450161079787</v>
       </c>
       <c r="D18">
-        <v>2.696912017307172</v>
+        <v>4.592263842929481</v>
       </c>
       <c r="E18">
-        <v>37.76461027725734</v>
+        <v>19.43141118104568</v>
       </c>
       <c r="F18">
-        <v>43.14966030493462</v>
+        <v>31.70038403248875</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
-        <v>22.53724894667092</v>
+        <v>22.10222220004287</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>9.401694381719757</v>
+        <v>16.40531910759829</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>33.62919217798502</v>
+        <v>19.06314168284407</v>
       </c>
       <c r="C19">
-        <v>30.92768009769983</v>
+        <v>16.35896341945634</v>
       </c>
       <c r="D19">
-        <v>2.698797289575111</v>
+        <v>4.59450425055316</v>
       </c>
       <c r="E19">
-        <v>37.56107715196592</v>
+        <v>19.34724216780952</v>
       </c>
       <c r="F19">
-        <v>42.9301943463528</v>
+        <v>31.65093142035202</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
-        <v>22.44981463640258</v>
+        <v>22.09176951546285</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>9.431967747894014</v>
+        <v>16.41171741009099</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>34.36785405854955</v>
+        <v>19.34589493503634</v>
       </c>
       <c r="C20">
-        <v>31.62696815066298</v>
+        <v>16.65207176417217</v>
       </c>
       <c r="D20">
-        <v>2.691401001045544</v>
+        <v>4.584501936216114</v>
       </c>
       <c r="E20">
-        <v>38.47607682449612</v>
+        <v>19.72334489026741</v>
       </c>
       <c r="F20">
-        <v>43.91692808665655</v>
+        <v>31.87372571133859</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
-        <v>22.8630972389095</v>
+        <v>22.13931495439393</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>9.295592429770604</v>
+        <v>16.38305202843518</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>36.80524309225987</v>
+        <v>20.27185430467744</v>
       </c>
       <c r="C21">
-        <v>33.94359370970107</v>
+        <v>17.6047554181689</v>
       </c>
       <c r="D21">
-        <v>2.821263155685663</v>
+        <v>4.552302405222759</v>
       </c>
       <c r="E21">
-        <v>41.54389039004901</v>
+        <v>20.94048886148515</v>
       </c>
       <c r="F21">
-        <v>47.223240701485</v>
+        <v>32.62594750916708</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
-        <v>24.61616365802249</v>
+        <v>22.30787765259198</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>8.834215592678039</v>
+        <v>16.28896761276249</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>38.37073018774941</v>
+        <v>20.85839602782384</v>
       </c>
       <c r="C22">
-        <v>35.43949575513994</v>
+        <v>18.20328529036729</v>
       </c>
       <c r="D22">
-        <v>3.016186424538375</v>
+        <v>4.532320332899815</v>
       </c>
       <c r="E22">
-        <v>43.55771486501173</v>
+        <v>21.70150014141525</v>
       </c>
       <c r="F22">
-        <v>49.38679053775825</v>
+        <v>33.11940869294305</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
-        <v>25.77302394925639</v>
+        <v>22.42453451260911</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>8.529438670042039</v>
+        <v>16.22912929585626</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>37.53731133210018</v>
+        <v>20.54709322075044</v>
       </c>
       <c r="C23">
-        <v>34.64230568001582</v>
+        <v>17.88602087264057</v>
       </c>
       <c r="D23">
-        <v>2.911368342441</v>
+        <v>4.542887053555599</v>
       </c>
       <c r="E23">
-        <v>42.48109190442835</v>
+        <v>21.29847450150497</v>
       </c>
       <c r="F23">
-        <v>48.23112682682929</v>
+        <v>32.85592695077821</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
-        <v>25.15416912206458</v>
+        <v>22.36168411516848</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>8.692458214073199</v>
+        <v>16.26091560062929</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>34.3274700905161</v>
+        <v>19.33045602631613</v>
       </c>
       <c r="C24">
-        <v>31.58870468796374</v>
+        <v>16.63609571632843</v>
       </c>
       <c r="D24">
-        <v>2.691733941375474</v>
+        <v>4.58504595660068</v>
       </c>
       <c r="E24">
-        <v>38.42588407579172</v>
+        <v>19.70286661040437</v>
       </c>
       <c r="F24">
-        <v>43.86279576860355</v>
+        <v>31.86147482979894</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
-        <v>22.83455325435763</v>
+        <v>22.13667063217627</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>9.303091303087614</v>
+        <v>16.38461779248437</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>30.71334671749554</v>
+        <v>17.94299181732663</v>
       </c>
       <c r="C25">
-        <v>28.17878994886883</v>
+        <v>15.18584752800484</v>
       </c>
       <c r="D25">
-        <v>2.75199226920539</v>
+        <v>4.634995031346753</v>
       </c>
       <c r="E25">
-        <v>34.00842044304628</v>
+        <v>17.83247183317552</v>
       </c>
       <c r="F25">
-        <v>39.10715717819856</v>
+        <v>30.80252218164245</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
-        <v>20.97646300240387</v>
+        <v>21.92230873480763</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>9.953360150729807</v>
+        <v>16.52519767638384</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_6/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_6/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.86326320006514</v>
+        <v>27.8922438414572</v>
       </c>
       <c r="C2">
-        <v>14.03311813798708</v>
+        <v>25.53521796938514</v>
       </c>
       <c r="D2">
-        <v>4.67553686572749</v>
+        <v>2.832171597702332</v>
       </c>
       <c r="E2">
-        <v>16.49936937945428</v>
+        <v>30.65112964922558</v>
       </c>
       <c r="F2">
-        <v>30.04103356718291</v>
+        <v>35.76045785144338</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
-        <v>21.78920218704911</v>
+        <v>19.69181911499242</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>16.63493714321157</v>
+        <v>10.43052436411699</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.09950608411895</v>
+        <v>25.86909735592042</v>
       </c>
       <c r="C3">
-        <v>13.20107851691508</v>
+        <v>23.64811534727374</v>
       </c>
       <c r="D3">
-        <v>4.705322109001955</v>
+        <v>2.901995547316124</v>
       </c>
       <c r="E3">
-        <v>15.55653740869772</v>
+        <v>28.28566950869536</v>
       </c>
       <c r="F3">
-        <v>29.53962476997393</v>
+        <v>33.51157788841216</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>21.71450993813013</v>
+        <v>18.86234232340843</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>16.71323766419159</v>
+        <v>10.75534152705688</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.6165365790916</v>
+        <v>24.56886541719793</v>
       </c>
       <c r="C4">
-        <v>12.66614278142704</v>
+        <v>22.43887115665024</v>
       </c>
       <c r="D4">
-        <v>4.724737553455235</v>
+        <v>2.950778573536827</v>
       </c>
       <c r="E4">
-        <v>14.9537146056006</v>
+        <v>26.78223290159749</v>
       </c>
       <c r="F4">
-        <v>29.24008450748608</v>
+        <v>32.11673084449058</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>21.67630736357052</v>
+        <v>18.3721832003911</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>16.7632661077178</v>
+        <v>10.95620893751895</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.4165069466694</v>
+        <v>24.02401132387598</v>
       </c>
       <c r="C5">
-        <v>12.44229443434551</v>
+        <v>21.93293313745091</v>
       </c>
       <c r="D5">
-        <v>4.732931184931721</v>
+        <v>2.971934241416565</v>
       </c>
       <c r="E5">
-        <v>14.70231493588561</v>
+        <v>26.15589780263409</v>
       </c>
       <c r="F5">
-        <v>29.12027612849793</v>
+        <v>31.54488077637458</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>21.66266416984451</v>
+        <v>18.17714040642554</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16.78414567939432</v>
+        <v>11.0385203581176</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.38310782455767</v>
+        <v>23.93262154749285</v>
       </c>
       <c r="C6">
-        <v>12.40477725121553</v>
+        <v>21.84811538049381</v>
       </c>
       <c r="D6">
-        <v>4.734308694129534</v>
+        <v>2.975518788325161</v>
       </c>
       <c r="E6">
-        <v>14.66023221925074</v>
+        <v>26.05104692988678</v>
       </c>
       <c r="F6">
-        <v>29.10052298770863</v>
+        <v>31.44972419164919</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>21.66051488219825</v>
+        <v>18.14503500080446</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>16.78764252021187</v>
+        <v>11.05221836368472</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.61385148993465</v>
+        <v>24.56157856974053</v>
       </c>
       <c r="C7">
-        <v>12.66314731696181</v>
+        <v>22.43210174805363</v>
       </c>
       <c r="D7">
-        <v>4.724846917373409</v>
+        <v>2.951058968644772</v>
       </c>
       <c r="E7">
-        <v>14.95034700444685</v>
+        <v>26.77384232267414</v>
       </c>
       <c r="F7">
-        <v>29.23845938126506</v>
+        <v>32.10903233721145</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>21.67611557741753</v>
+        <v>18.36953387339553</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>16.76354570006199</v>
+        <v>10.95731704758019</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.60300276344202</v>
+        <v>27.20644188986281</v>
       </c>
       <c r="C8">
-        <v>13.75132760860096</v>
+        <v>24.89475194270237</v>
       </c>
       <c r="D8">
-        <v>4.685571788110286</v>
+        <v>2.854880818658449</v>
       </c>
       <c r="E8">
-        <v>16.17939195783057</v>
+        <v>29.84557149924314</v>
       </c>
       <c r="F8">
-        <v>29.86651887182369</v>
+        <v>34.98794518070542</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>21.76185885306386</v>
+        <v>19.4017612397056</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>16.66153121405278</v>
+        <v>10.5422858285662</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.41988254978029</v>
+        <v>31.95390871059899</v>
       </c>
       <c r="C9">
-        <v>15.68778390903621</v>
+        <v>29.34614839725324</v>
       </c>
       <c r="D9">
-        <v>4.617579445633492</v>
+        <v>2.725064155850748</v>
       </c>
       <c r="E9">
-        <v>18.48260987542155</v>
+        <v>35.50888037415337</v>
       </c>
       <c r="F9">
-        <v>31.15683926971352</v>
+        <v>40.71936342725971</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>21.99069407608192</v>
+        <v>21.58589836896723</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>16.47688076695082</v>
+        <v>9.734920048140623</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.6668466125248</v>
+        <v>35.2089969061988</v>
       </c>
       <c r="C10">
-        <v>16.9834811505773</v>
+        <v>32.42480879410015</v>
       </c>
       <c r="D10">
-        <v>4.57324683375428</v>
+        <v>2.686437085830421</v>
       </c>
       <c r="E10">
-        <v>20.14762134080832</v>
+        <v>39.52608479505153</v>
       </c>
       <c r="F10">
-        <v>32.13060688052058</v>
+        <v>45.04927224049089</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>22.19553433515441</v>
+        <v>23.46137708826839</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>16.35048352457731</v>
+        <v>9.13829540049213</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.21292546750902</v>
+        <v>36.64903289826663</v>
       </c>
       <c r="C11">
-        <v>17.54442871298576</v>
+        <v>33.79468170902404</v>
       </c>
       <c r="D11">
-        <v>4.554327269562337</v>
+        <v>2.802270501529564</v>
       </c>
       <c r="E11">
-        <v>20.8636324526438</v>
+        <v>41.34489862208996</v>
       </c>
       <c r="F11">
-        <v>32.57707905736765</v>
+        <v>47.00905614526303</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>22.29657491870482</v>
+        <v>24.50204320246736</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>16.29496772538405</v>
+        <v>8.864282440005534</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.41652675317806</v>
+        <v>37.18951412301802</v>
       </c>
       <c r="C12">
-        <v>17.75269737804442</v>
+        <v>34.31018023648713</v>
       </c>
       <c r="D12">
-        <v>4.547344847858403</v>
+        <v>2.86833372008839</v>
       </c>
       <c r="E12">
-        <v>21.12885469364625</v>
+        <v>42.03487325557084</v>
       </c>
       <c r="F12">
-        <v>32.746477391517</v>
+        <v>47.75144517121539</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>22.33595195382016</v>
+        <v>24.89791480696746</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>16.27422853150778</v>
+        <v>8.75997826195233</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.37282133760514</v>
+        <v>37.07330772437369</v>
       </c>
       <c r="C13">
-        <v>17.70802830472552</v>
+        <v>34.19928117885117</v>
       </c>
       <c r="D13">
-        <v>4.548840499488057</v>
+        <v>2.854046627932032</v>
       </c>
       <c r="E13">
-        <v>21.07199681444409</v>
+        <v>41.88617376913957</v>
       </c>
       <c r="F13">
-        <v>32.70998251709078</v>
+        <v>47.59151468370174</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>22.32742206977603</v>
+        <v>24.81255851083904</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>16.27868250921821</v>
+        <v>8.782468888334307</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.22974047279995</v>
+        <v>36.69358868545592</v>
       </c>
       <c r="C14">
-        <v>17.56164654247367</v>
+        <v>33.83714944726761</v>
       </c>
       <c r="D14">
-        <v>4.553749158419958</v>
+        <v>2.807679439987127</v>
       </c>
       <c r="E14">
-        <v>20.88557077964896</v>
+        <v>41.40162213123225</v>
       </c>
       <c r="F14">
-        <v>32.59100994671133</v>
+        <v>47.07011630776576</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>22.29979223527027</v>
+        <v>24.53456929242995</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>16.29325582873647</v>
+        <v>8.855713119123889</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.14168044635809</v>
+        <v>36.46040531118607</v>
       </c>
       <c r="C15">
-        <v>17.47144162304754</v>
+        <v>33.61495007676001</v>
       </c>
       <c r="D15">
-        <v>4.55677963612174</v>
+        <v>2.779445107277638</v>
       </c>
       <c r="E15">
-        <v>20.77061022358257</v>
+        <v>41.10506468584514</v>
       </c>
       <c r="F15">
-        <v>32.51817357174709</v>
+        <v>46.75083704250225</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>22.28301290865018</v>
+        <v>24.3645599797947</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>16.30221926869253</v>
+        <v>8.900501670394972</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.6307203331286</v>
+        <v>35.11415047387663</v>
       </c>
       <c r="C16">
-        <v>16.94624387798889</v>
+        <v>32.33476151847919</v>
       </c>
       <c r="D16">
-        <v>4.574508595819851</v>
+        <v>2.686804271670328</v>
       </c>
       <c r="E16">
-        <v>20.09999839105503</v>
+        <v>39.40724449565226</v>
       </c>
       <c r="F16">
-        <v>32.10148429507814</v>
+        <v>44.92112993682731</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>22.18908800856398</v>
+        <v>23.39355941073868</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>16.35415136799237</v>
+        <v>9.156136380598845</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.31173138345702</v>
+        <v>34.27850018936301</v>
       </c>
       <c r="C17">
-        <v>16.6167153150177</v>
+        <v>31.54231116136836</v>
       </c>
       <c r="D17">
-        <v>4.585706082447154</v>
+        <v>2.692148975013126</v>
       </c>
       <c r="E17">
-        <v>19.67802134919618</v>
+        <v>38.36504639182245</v>
       </c>
       <c r="F17">
-        <v>31.84662989864033</v>
+        <v>43.79718323619682</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>22.13347098353924</v>
+        <v>22.79996283749892</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>16.38651668687908</v>
+        <v>9.312177880031811</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.12627153843833</v>
+        <v>33.79395079730128</v>
       </c>
       <c r="C18">
-        <v>16.42450161079787</v>
+        <v>31.08354948193671</v>
       </c>
       <c r="D18">
-        <v>4.592263842929481</v>
+        <v>2.696912017307227</v>
       </c>
       <c r="E18">
-        <v>19.43141118104568</v>
+        <v>37.76461027725721</v>
       </c>
       <c r="F18">
-        <v>31.70038403248875</v>
+        <v>43.14966030493457</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>22.10222220004287</v>
+        <v>22.53724894667096</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>16.40531910759829</v>
+        <v>9.401694381719858</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.06314168284407</v>
+        <v>33.62919217798508</v>
       </c>
       <c r="C19">
-        <v>16.35896341945634</v>
+        <v>30.92768009769998</v>
       </c>
       <c r="D19">
-        <v>4.59450425055316</v>
+        <v>2.69879728957514</v>
       </c>
       <c r="E19">
-        <v>19.34724216780952</v>
+        <v>37.561077151966</v>
       </c>
       <c r="F19">
-        <v>31.65093142035202</v>
+        <v>42.93019434635304</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>22.09176951546285</v>
+        <v>22.44981463640265</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>16.41171741009099</v>
+        <v>9.431967747893935</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.34589493503634</v>
+        <v>34.36785405854955</v>
       </c>
       <c r="C20">
-        <v>16.65207176417217</v>
+        <v>31.62696815066302</v>
       </c>
       <c r="D20">
-        <v>4.584501936216114</v>
+        <v>2.691401001045551</v>
       </c>
       <c r="E20">
-        <v>19.72334489026741</v>
+        <v>38.4760768244961</v>
       </c>
       <c r="F20">
-        <v>31.87372571133859</v>
+        <v>43.91692808665656</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>22.13931495439393</v>
+        <v>22.86309723890951</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>16.38305202843518</v>
+        <v>9.295592429770672</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.27185430467744</v>
+        <v>36.80524309225989</v>
       </c>
       <c r="C21">
-        <v>17.6047554181689</v>
+        <v>33.94359370970111</v>
       </c>
       <c r="D21">
-        <v>4.552302405222759</v>
+        <v>2.821263155685778</v>
       </c>
       <c r="E21">
-        <v>20.94048886148515</v>
+        <v>41.54389039004908</v>
       </c>
       <c r="F21">
-        <v>32.62594750916708</v>
+        <v>47.22324070148506</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>22.30787765259198</v>
+        <v>24.61616365802252</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>16.28896761276249</v>
+        <v>8.834215592678083</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.85839602782384</v>
+        <v>38.37073018774934</v>
       </c>
       <c r="C22">
-        <v>18.20328529036729</v>
+        <v>35.43949575513988</v>
       </c>
       <c r="D22">
-        <v>4.532320332899815</v>
+        <v>3.016186424538485</v>
       </c>
       <c r="E22">
-        <v>21.70150014141525</v>
+        <v>43.55771486501159</v>
       </c>
       <c r="F22">
-        <v>33.11940869294305</v>
+        <v>49.38679053775809</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>22.42453451260911</v>
+        <v>25.77302394925627</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>16.22912929585626</v>
+        <v>8.529438670042051</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.54709322075044</v>
+        <v>37.5373113321004</v>
       </c>
       <c r="C23">
-        <v>17.88602087264057</v>
+        <v>34.64230568001581</v>
       </c>
       <c r="D23">
-        <v>4.542887053555599</v>
+        <v>2.911368342440921</v>
       </c>
       <c r="E23">
-        <v>21.29847450150497</v>
+        <v>42.48109190442844</v>
       </c>
       <c r="F23">
-        <v>32.85592695077821</v>
+        <v>48.23112682682954</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>22.36168411516848</v>
+        <v>25.15416912206474</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>16.26091560062929</v>
+        <v>8.692458214073184</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.33045602631613</v>
+        <v>34.32747009051623</v>
       </c>
       <c r="C24">
-        <v>16.63609571632843</v>
+        <v>31.58870468796398</v>
       </c>
       <c r="D24">
-        <v>4.58504595660068</v>
+        <v>2.691733941375503</v>
       </c>
       <c r="E24">
-        <v>19.70286661040437</v>
+        <v>38.42588407579181</v>
       </c>
       <c r="F24">
-        <v>31.86147482979894</v>
+        <v>43.86279576860373</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>22.13667063217627</v>
+        <v>22.83455325435773</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>16.38461779248437</v>
+        <v>9.303091303087557</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.94299181732663</v>
+        <v>30.7133467174955</v>
       </c>
       <c r="C25">
-        <v>15.18584752800484</v>
+        <v>28.17878994886882</v>
       </c>
       <c r="D25">
-        <v>4.634995031346753</v>
+        <v>2.751992269205474</v>
       </c>
       <c r="E25">
-        <v>17.83247183317552</v>
+        <v>34.00842044304633</v>
       </c>
       <c r="F25">
-        <v>30.80252218164245</v>
+        <v>39.10715717819859</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>21.92230873480763</v>
+        <v>20.97646300240392</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>16.52519767638384</v>
+        <v>9.953360150729843</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_6/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_6/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,40 +415,46 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>27.8922438414572</v>
+        <v>26.40384126061448</v>
       </c>
       <c r="C2">
-        <v>25.53521796938514</v>
+        <v>18.2880728992646</v>
       </c>
       <c r="D2">
-        <v>2.832171597702332</v>
+        <v>4.804909474364029</v>
       </c>
       <c r="E2">
-        <v>30.65112964922558</v>
+        <v>6.945039624883856</v>
       </c>
       <c r="F2">
-        <v>35.76045785144338</v>
+        <v>35.63103681147145</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>1.687184664036804</v>
       </c>
       <c r="I2">
-        <v>19.69181911499242</v>
+        <v>2.530064366751083</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>23.5046902330603</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,45 +463,51 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>10.43052436411699</v>
+        <v>8.500791111923471</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>13.00637984877071</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>25.86909735592042</v>
+        <v>24.70457034665985</v>
       </c>
       <c r="C3">
-        <v>23.64811534727374</v>
+        <v>17.01649990092606</v>
       </c>
       <c r="D3">
-        <v>2.901995547316124</v>
+        <v>4.793385408303928</v>
       </c>
       <c r="E3">
-        <v>28.28566950869536</v>
+        <v>6.664519758723136</v>
       </c>
       <c r="F3">
-        <v>33.51157788841216</v>
+        <v>33.98540276966956</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>2.001013691983526</v>
       </c>
       <c r="I3">
-        <v>18.86234232340843</v>
+        <v>2.808191288968069</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>22.82672701278962</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,45 +516,51 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>10.75534152705688</v>
+        <v>8.109969233102783</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>13.15174007390165</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>24.56886541719793</v>
+        <v>23.60212459114518</v>
       </c>
       <c r="C4">
-        <v>22.43887115665024</v>
+        <v>16.19548241090261</v>
       </c>
       <c r="D4">
-        <v>2.950778573536827</v>
+        <v>4.784963958189765</v>
       </c>
       <c r="E4">
-        <v>26.78223290159749</v>
+        <v>6.487740731196339</v>
       </c>
       <c r="F4">
-        <v>32.11673084449058</v>
+        <v>32.94605331874212</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>2.19955678876699</v>
       </c>
       <c r="I4">
-        <v>18.3721832003911</v>
+        <v>2.984899947754294</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>22.4039439007151</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,45 +569,51 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>10.95620893751895</v>
+        <v>7.860885067435105</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>13.24119354879837</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>24.02401132387598</v>
+        <v>23.1289261014004</v>
       </c>
       <c r="C5">
-        <v>21.93293313745091</v>
+        <v>15.85468942519278</v>
       </c>
       <c r="D5">
-        <v>2.971934241416565</v>
+        <v>4.779575027958664</v>
       </c>
       <c r="E5">
-        <v>26.15589780263409</v>
+        <v>6.413717220006704</v>
       </c>
       <c r="F5">
-        <v>31.54488077637458</v>
+        <v>32.49778581730432</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>2.28257433768003</v>
       </c>
       <c r="I5">
-        <v>18.17714040642554</v>
+        <v>3.061580429682715</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>22.21681592566911</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,45 +622,51 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.0385203581176</v>
+        <v>7.757155820798236</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>13.27556812809368</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23.93262154749285</v>
+        <v>23.03828052476896</v>
       </c>
       <c r="C6">
-        <v>21.84811538049381</v>
+        <v>15.80238347745385</v>
       </c>
       <c r="D6">
-        <v>2.975518788325161</v>
+        <v>4.776682336287205</v>
       </c>
       <c r="E6">
-        <v>26.05104692988678</v>
+        <v>6.400383930394931</v>
       </c>
       <c r="F6">
-        <v>31.44972419164919</v>
+        <v>32.40105589616501</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>2.297177863972251</v>
       </c>
       <c r="I6">
-        <v>18.14503500080446</v>
+        <v>3.07844690631244</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>22.16933091561422</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,45 +675,51 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.05221836368472</v>
+        <v>7.739803015061085</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>13.27866813275862</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>24.56157856974053</v>
+        <v>23.5659534030409</v>
       </c>
       <c r="C7">
-        <v>22.43210174805363</v>
+        <v>16.2039603809637</v>
       </c>
       <c r="D7">
-        <v>2.951058968644772</v>
+        <v>4.779509070285139</v>
       </c>
       <c r="E7">
-        <v>26.77384232267414</v>
+        <v>6.484135940449018</v>
       </c>
       <c r="F7">
-        <v>32.10903233721145</v>
+        <v>32.88115522540236</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>2.202631331188331</v>
       </c>
       <c r="I7">
-        <v>18.36953387339553</v>
+        <v>2.996746106243894</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>22.35723655023286</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,45 +728,51 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>10.95731704758019</v>
+        <v>7.859509100327415</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>13.23457141234419</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>27.20644188986281</v>
+        <v>25.79358134453925</v>
       </c>
       <c r="C8">
-        <v>24.89475194270237</v>
+        <v>17.8736765597301</v>
       </c>
       <c r="D8">
-        <v>2.854880818658449</v>
+        <v>4.794194734605668</v>
       </c>
       <c r="E8">
-        <v>29.84557149924314</v>
+        <v>6.845914664122516</v>
       </c>
       <c r="F8">
-        <v>34.98794518070542</v>
+        <v>34.99611762576178</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>1.796711419793073</v>
       </c>
       <c r="I8">
-        <v>19.4017612397056</v>
+        <v>2.639179264984274</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>23.21580552869342</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,45 +781,51 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>10.5422858285662</v>
+        <v>8.36799433968125</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>13.04731276192194</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>31.95390871059899</v>
+        <v>29.74035420283274</v>
       </c>
       <c r="C9">
-        <v>29.34614839725324</v>
+        <v>20.81318737331798</v>
       </c>
       <c r="D9">
-        <v>2.725064155850748</v>
+        <v>4.821598844184241</v>
       </c>
       <c r="E9">
-        <v>35.50888037415337</v>
+        <v>7.526204310319054</v>
       </c>
       <c r="F9">
-        <v>40.71936342725971</v>
+        <v>38.99578843644598</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>2.066929334668244</v>
       </c>
       <c r="I9">
-        <v>21.58589836896723</v>
+        <v>2.973517762610483</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>24.91775140949845</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,45 +834,51 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>9.734920048140623</v>
+        <v>9.29053537038495</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>12.69327416591252</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>35.2089969061988</v>
+        <v>32.23316072120385</v>
       </c>
       <c r="C10">
-        <v>32.42480879410015</v>
+        <v>22.7978932513628</v>
       </c>
       <c r="D10">
-        <v>2.686437085830421</v>
+        <v>4.807691383983602</v>
       </c>
       <c r="E10">
-        <v>39.52608479505153</v>
+        <v>7.974746746671743</v>
       </c>
       <c r="F10">
-        <v>45.04927224049089</v>
+        <v>41.50129546962514</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>2.567619287792895</v>
       </c>
       <c r="I10">
-        <v>23.46137708826839</v>
+        <v>3.421871884625472</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>25.9246432673356</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,45 +887,51 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>9.13829540049213</v>
+        <v>9.776627409269702</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>12.39945360776055</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>36.64903289826663</v>
+        <v>32.34122428008934</v>
       </c>
       <c r="C11">
-        <v>33.79468170902404</v>
+        <v>23.71235006438515</v>
       </c>
       <c r="D11">
-        <v>2.802270501529564</v>
+        <v>4.605165738135907</v>
       </c>
       <c r="E11">
-        <v>41.34489862208996</v>
+        <v>8.103162792758743</v>
       </c>
       <c r="F11">
-        <v>47.00905614526303</v>
+        <v>40.4404478613714</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>3.329385622082155</v>
       </c>
       <c r="I11">
-        <v>24.50204320246736</v>
+        <v>3.532359801343491</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>24.73820198964528</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,45 +940,51 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>8.864282440005534</v>
+        <v>8.770733570717024</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>12.02972427541904</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>37.18951412301802</v>
+        <v>31.95364642628067</v>
       </c>
       <c r="C12">
-        <v>34.31018023648713</v>
+        <v>24.06429316667253</v>
       </c>
       <c r="D12">
-        <v>2.86833372008839</v>
+        <v>4.480674502734814</v>
       </c>
       <c r="E12">
-        <v>42.03487325557084</v>
+        <v>8.404875042085703</v>
       </c>
       <c r="F12">
-        <v>47.75144517121539</v>
+        <v>39.07421752850511</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>4.46412568225302</v>
       </c>
       <c r="I12">
-        <v>24.89791480696746</v>
+        <v>3.535908426388332</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>23.57165819854225</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,45 +993,51 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>8.75997826195233</v>
+        <v>7.847421255684973</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>11.83334214405524</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>37.07330772437369</v>
+        <v>31.0967948918496</v>
       </c>
       <c r="C13">
-        <v>34.19928117885117</v>
+        <v>24.03004076212562</v>
       </c>
       <c r="D13">
-        <v>2.854046627932032</v>
+        <v>4.403411235329321</v>
       </c>
       <c r="E13">
-        <v>41.88617376913957</v>
+        <v>8.826004213424763</v>
       </c>
       <c r="F13">
-        <v>47.59151468370174</v>
+        <v>37.27332635707977</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>5.697193554972795</v>
       </c>
       <c r="I13">
-        <v>24.81255851083904</v>
+        <v>3.458926718614296</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>22.270291124373</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,45 +1046,51 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>8.782468888334307</v>
+        <v>6.927893982000863</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>11.74897701786824</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>36.69358868545592</v>
+        <v>30.26574415963863</v>
       </c>
       <c r="C14">
-        <v>33.83714944726761</v>
+        <v>23.83490170124986</v>
       </c>
       <c r="D14">
-        <v>2.807679439987127</v>
+        <v>4.376267431411689</v>
       </c>
       <c r="E14">
-        <v>41.40162213123225</v>
+        <v>9.19401022649963</v>
       </c>
       <c r="F14">
-        <v>47.07011630776576</v>
+        <v>35.78034167398677</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>6.597712918269165</v>
       </c>
       <c r="I14">
-        <v>24.53456929242995</v>
+        <v>3.369875584437846</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>21.28212106048862</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,45 +1099,51 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>8.855713119123889</v>
+        <v>6.299845779788191</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>11.74554706991936</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>36.46040531118607</v>
+        <v>29.95063432680726</v>
       </c>
       <c r="C15">
-        <v>33.61495007676001</v>
+        <v>23.70814148850569</v>
       </c>
       <c r="D15">
-        <v>2.779445107277638</v>
+        <v>4.374616565487214</v>
       </c>
       <c r="E15">
-        <v>41.10506468584514</v>
+        <v>9.273506046668327</v>
       </c>
       <c r="F15">
-        <v>46.75083704250225</v>
+        <v>35.30288961949474</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>6.800904149116743</v>
       </c>
       <c r="I15">
-        <v>24.3645599797947</v>
+        <v>3.331125637610147</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>20.99935709697069</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,45 +1152,51 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>8.900501670394972</v>
+        <v>6.144335736734707</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>11.76201134918356</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>35.11415047387663</v>
+        <v>29.00320267356217</v>
       </c>
       <c r="C16">
-        <v>32.33476151847919</v>
+        <v>22.90872051992397</v>
       </c>
       <c r="D16">
-        <v>2.686804271670328</v>
+        <v>4.394655400203529</v>
       </c>
       <c r="E16">
-        <v>39.40724449565226</v>
+        <v>9.007975102313907</v>
       </c>
       <c r="F16">
-        <v>44.92112993682731</v>
+        <v>34.46246551013731</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>6.507984945683702</v>
       </c>
       <c r="I16">
-        <v>23.39355941073868</v>
+        <v>3.157339969769961</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>20.764943224037</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,45 +1205,51 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>9.156136380598845</v>
+        <v>6.081496800596746</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>11.89885259589231</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>34.27850018936301</v>
+        <v>28.73454008846242</v>
       </c>
       <c r="C17">
-        <v>31.54231116136836</v>
+        <v>22.39137738267024</v>
       </c>
       <c r="D17">
-        <v>2.692148975013126</v>
+        <v>4.420440430840711</v>
       </c>
       <c r="E17">
-        <v>38.36504639182245</v>
+        <v>8.577291702955211</v>
       </c>
       <c r="F17">
-        <v>43.79718323619682</v>
+        <v>34.64039221751688</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>5.750372939738466</v>
       </c>
       <c r="I17">
-        <v>22.79996283749892</v>
+        <v>3.071078156036799</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>21.11992812536566</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,45 +1258,51 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>9.312177880031811</v>
+        <v>6.365273552221323</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>12.00263649670352</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>33.79395079730128</v>
+        <v>29.03925452196743</v>
       </c>
       <c r="C18">
-        <v>31.08354948193671</v>
+        <v>22.05866385778801</v>
       </c>
       <c r="D18">
-        <v>2.696912017307227</v>
+        <v>4.476080758596403</v>
       </c>
       <c r="E18">
-        <v>37.76461027725721</v>
+        <v>8.059836303542234</v>
       </c>
       <c r="F18">
-        <v>43.14966030493457</v>
+        <v>35.756513405196</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>4.545334559098978</v>
       </c>
       <c r="I18">
-        <v>22.53724894667096</v>
+        <v>3.050788961513967</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>22.05520820831374</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,45 +1311,51 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>9.401694381719858</v>
+        <v>7.02603499496832</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>12.11495581563366</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>33.62919217798508</v>
+        <v>29.73057646089119</v>
       </c>
       <c r="C19">
-        <v>30.92768009769998</v>
+        <v>21.9233522743339</v>
       </c>
       <c r="D19">
-        <v>2.69879728957514</v>
+        <v>4.576891087974559</v>
       </c>
       <c r="E19">
-        <v>37.561077151966</v>
+        <v>7.704255308703221</v>
       </c>
       <c r="F19">
-        <v>42.93019434635304</v>
+        <v>37.42963602554679</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>3.231177072093292</v>
       </c>
       <c r="I19">
-        <v>22.44981463640265</v>
+        <v>3.095674215254475</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>23.31545628540448</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,45 +1364,51 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>9.431967747893935</v>
+        <v>7.983504167269301</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>12.2532370912371</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>34.36785405854955</v>
+        <v>31.51869140492341</v>
       </c>
       <c r="C20">
-        <v>31.62696815066302</v>
+        <v>22.31928469157465</v>
       </c>
       <c r="D20">
-        <v>2.691401001045551</v>
+        <v>4.795039923393672</v>
       </c>
       <c r="E20">
-        <v>38.4760768244961</v>
+        <v>7.848853499942784</v>
       </c>
       <c r="F20">
-        <v>43.91692808665656</v>
+        <v>40.690818080108</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>2.430290267006598</v>
       </c>
       <c r="I20">
-        <v>22.86309723890951</v>
+        <v>3.309632126897619</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>25.5326916414079</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,45 +1417,51 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>9.295592429770672</v>
+        <v>9.64482541845369</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>12.45511499848287</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>36.80524309225989</v>
+        <v>33.55297458239303</v>
       </c>
       <c r="C21">
-        <v>33.94359370970111</v>
+        <v>23.77129217699234</v>
       </c>
       <c r="D21">
-        <v>2.821263155685778</v>
+        <v>4.823580800882416</v>
       </c>
       <c r="E21">
-        <v>41.54389039004908</v>
+        <v>8.242815710696938</v>
       </c>
       <c r="F21">
-        <v>47.22324070148506</v>
+        <v>42.97628448106828</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>2.836099479012077</v>
       </c>
       <c r="I21">
-        <v>24.61616365802252</v>
+        <v>3.664873578792253</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>26.60491397880761</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,45 +1470,51 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>8.834215592678083</v>
+        <v>10.22683714028812</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>12.27990049610287</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>38.37073018774934</v>
+        <v>34.82733970498973</v>
       </c>
       <c r="C22">
-        <v>35.43949575513988</v>
+        <v>24.68046030065283</v>
       </c>
       <c r="D22">
-        <v>3.016186424538485</v>
+        <v>4.835034856688467</v>
       </c>
       <c r="E22">
-        <v>43.55771486501159</v>
+        <v>8.484051776207052</v>
       </c>
       <c r="F22">
-        <v>49.38679053775809</v>
+        <v>44.37019318066992</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>3.091112302785061</v>
       </c>
       <c r="I22">
-        <v>25.77302394925627</v>
+        <v>3.888131748438114</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>27.2508630272145</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,45 +1523,51 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>8.529438670042051</v>
+        <v>10.52393051133437</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>12.1583711256021</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>37.5373113321004</v>
+        <v>34.17811582039682</v>
       </c>
       <c r="C23">
-        <v>34.64230568001581</v>
+        <v>24.18742550728588</v>
       </c>
       <c r="D23">
-        <v>2.911368342440921</v>
+        <v>4.835031618471893</v>
       </c>
       <c r="E23">
-        <v>42.48109190442844</v>
+        <v>8.358058153881274</v>
       </c>
       <c r="F23">
-        <v>48.23112682682954</v>
+        <v>43.68357339488944</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>2.957273150285921</v>
       </c>
       <c r="I23">
-        <v>25.15416912206474</v>
+        <v>3.767575589766714</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>26.95126395127071</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,45 +1576,51 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>8.692458214073184</v>
+        <v>10.36616367901722</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>12.23101705561773</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>34.32747009051623</v>
+        <v>31.61586346875158</v>
       </c>
       <c r="C24">
-        <v>31.58870468796398</v>
+        <v>22.2740403799739</v>
       </c>
       <c r="D24">
-        <v>2.691733941375503</v>
+        <v>4.82309506930948</v>
       </c>
       <c r="E24">
-        <v>38.42588407579181</v>
+        <v>7.873479995961742</v>
       </c>
       <c r="F24">
-        <v>43.86279576860373</v>
+        <v>40.93609855226084</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>2.441017234766078</v>
       </c>
       <c r="I24">
-        <v>22.83455325435773</v>
+        <v>3.309034349041429</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>25.73173989275181</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,45 +1629,51 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>9.303091303087557</v>
+        <v>9.750812774298247</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>12.49335252041985</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>30.7133467174955</v>
+        <v>28.67740110763697</v>
       </c>
       <c r="C25">
-        <v>28.17878994886882</v>
+        <v>20.07000067867415</v>
       </c>
       <c r="D25">
-        <v>2.751992269205474</v>
+        <v>4.805977632170697</v>
       </c>
       <c r="E25">
-        <v>34.00842044304633</v>
+        <v>7.341102217106259</v>
       </c>
       <c r="F25">
-        <v>39.10715717819859</v>
+        <v>37.84853709879661</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>1.868722037488429</v>
       </c>
       <c r="I25">
-        <v>20.97646300240392</v>
+        <v>2.804900708456967</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>24.39058946850619</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,9 +1682,15 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>9.953360150729843</v>
+        <v>9.049251606657107</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>12.77690669257228</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_6/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_6/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.40384126061448</v>
+        <v>24.98364105461079</v>
       </c>
       <c r="C2">
-        <v>18.2880728992646</v>
+        <v>18.87853685140774</v>
       </c>
       <c r="D2">
-        <v>4.804909474364029</v>
+        <v>4.461598092756079</v>
       </c>
       <c r="E2">
-        <v>6.945039624883856</v>
+        <v>6.926367448327696</v>
       </c>
       <c r="F2">
-        <v>35.63103681147145</v>
+        <v>32.64609356500505</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.687184664036804</v>
+        <v>1.607934304749834</v>
       </c>
       <c r="I2">
-        <v>2.530064366751083</v>
+        <v>2.508419445937638</v>
       </c>
       <c r="J2">
-        <v>4.251792669784106</v>
+        <v>5.716774528916059</v>
       </c>
       <c r="K2">
-        <v>23.5046902330603</v>
+        <v>21.08644874404487</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>17.34053361421959</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>14.15759975457293</v>
       </c>
       <c r="N2">
-        <v>8.500791111923471</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>13.00637984877071</v>
+        <v>8.591215638000875</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>12.57210390091815</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.70457034665985</v>
+        <v>23.41148167448128</v>
       </c>
       <c r="C3">
-        <v>17.01649990092606</v>
+        <v>17.54772232440843</v>
       </c>
       <c r="D3">
-        <v>4.793385408303928</v>
+        <v>4.465577879901144</v>
       </c>
       <c r="E3">
-        <v>6.664519758723136</v>
+        <v>6.67123323761902</v>
       </c>
       <c r="F3">
-        <v>33.98540276966956</v>
+        <v>31.27799173350116</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2.001013691983526</v>
+        <v>1.891267802617788</v>
       </c>
       <c r="I3">
-        <v>2.808191288968069</v>
+        <v>2.682308319476117</v>
       </c>
       <c r="J3">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K3">
-        <v>22.82672701278962</v>
+        <v>20.63598878090747</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>17.16431050471685</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>13.63124683304342</v>
       </c>
       <c r="N3">
-        <v>8.109969233102783</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>13.15174007390165</v>
+        <v>8.211701331497622</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>12.73646116197933</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.60212459114518</v>
+        <v>22.38953256961801</v>
       </c>
       <c r="C4">
-        <v>16.19548241090261</v>
+        <v>16.68744112415669</v>
       </c>
       <c r="D4">
-        <v>4.784963958189765</v>
+        <v>4.466814199203481</v>
       </c>
       <c r="E4">
-        <v>6.487740731196339</v>
+        <v>6.510347402139114</v>
       </c>
       <c r="F4">
-        <v>32.94605331874212</v>
+        <v>30.41520594328884</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2.19955678876699</v>
+        <v>2.070785624416778</v>
       </c>
       <c r="I4">
-        <v>2.984899947754294</v>
+        <v>2.836521882688009</v>
       </c>
       <c r="J4">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K4">
-        <v>22.4039439007151</v>
+        <v>20.35562043004192</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>17.04715006522585</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>13.32150788478305</v>
       </c>
       <c r="N4">
-        <v>7.860885067435105</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>13.24119354879837</v>
+        <v>7.970099108311259</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>12.83795920534766</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23.1289261014004</v>
+        <v>21.95030449460944</v>
       </c>
       <c r="C5">
-        <v>15.85468942519278</v>
+        <v>16.32971888294835</v>
       </c>
       <c r="D5">
-        <v>4.779575027958664</v>
+        <v>4.466041574628151</v>
       </c>
       <c r="E5">
-        <v>6.413717220006704</v>
+        <v>6.442992053211924</v>
       </c>
       <c r="F5">
-        <v>32.49778581730432</v>
+        <v>30.04165072667744</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2.28257433768003</v>
+        <v>2.145915606665498</v>
       </c>
       <c r="I5">
-        <v>3.061580429682715</v>
+        <v>2.904454159356025</v>
       </c>
       <c r="J5">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K5">
-        <v>22.21681592566911</v>
+        <v>20.2285161231909</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>16.98749449958998</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>13.1905725839555</v>
       </c>
       <c r="N5">
-        <v>7.757155820798236</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>13.27556812809368</v>
+        <v>7.869565715632401</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>12.87818106791293</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23.03828052476896</v>
+        <v>21.86603799215672</v>
       </c>
       <c r="C6">
-        <v>15.80238347745385</v>
+        <v>16.27430394308787</v>
       </c>
       <c r="D6">
-        <v>4.776682336287205</v>
+        <v>4.464707867745811</v>
       </c>
       <c r="E6">
-        <v>6.400383930394931</v>
+        <v>6.430903005635146</v>
       </c>
       <c r="F6">
-        <v>32.40105589616501</v>
+        <v>29.95901929942488</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2.297177863972251</v>
+        <v>2.159142573649447</v>
       </c>
       <c r="I6">
-        <v>3.07844690631244</v>
+        <v>2.920493129069216</v>
       </c>
       <c r="J6">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K6">
-        <v>22.16933091561422</v>
+        <v>20.19274220660752</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>16.965684055204</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>13.15864996747826</v>
       </c>
       <c r="N6">
-        <v>7.739803015061085</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>13.27866813275862</v>
+        <v>7.852754306377903</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>12.88328303166697</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.5659534030409</v>
+        <v>22.35571049000348</v>
       </c>
       <c r="C7">
-        <v>16.2039603809637</v>
+        <v>16.69501627023203</v>
       </c>
       <c r="D7">
-        <v>4.779509070285139</v>
+        <v>4.463613514767658</v>
       </c>
       <c r="E7">
-        <v>6.484135940449018</v>
+        <v>6.507192838484641</v>
       </c>
       <c r="F7">
-        <v>32.88115522540236</v>
+        <v>30.35563191433878</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2.202631331188331</v>
+        <v>2.073584717171812</v>
       </c>
       <c r="I7">
-        <v>2.996746106243894</v>
+        <v>2.849905385903706</v>
       </c>
       <c r="J7">
-        <v>4.251792669778333</v>
+        <v>5.712988455786178</v>
       </c>
       <c r="K7">
-        <v>22.35723655023286</v>
+        <v>20.31434696258635</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>17.0148257651493</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>13.29112845331263</v>
       </c>
       <c r="N7">
-        <v>7.859509100327415</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>13.23457141234419</v>
+        <v>7.968772282710288</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>12.83426644849678</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.79358134453925</v>
+        <v>24.41907333456622</v>
       </c>
       <c r="C8">
-        <v>17.8736765597301</v>
+        <v>18.44349580020058</v>
       </c>
       <c r="D8">
-        <v>4.794194734605668</v>
+        <v>4.45924130740651</v>
       </c>
       <c r="E8">
-        <v>6.845914664122516</v>
+        <v>6.836416436292801</v>
       </c>
       <c r="F8">
-        <v>34.99611762576178</v>
+        <v>32.11092666107745</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1.796711419793073</v>
+        <v>1.706771552039343</v>
       </c>
       <c r="I8">
-        <v>2.639179264984274</v>
+        <v>2.539320092613588</v>
       </c>
       <c r="J8">
-        <v>4.251792669778333</v>
+        <v>5.711640832521052</v>
       </c>
       <c r="K8">
-        <v>23.21580552869342</v>
+        <v>20.88124729213261</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>17.24242357149143</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>13.93558622060758</v>
       </c>
       <c r="N8">
-        <v>8.36799433968125</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>13.04731276192194</v>
+        <v>8.462230373951659</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>12.62351306566988</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.74035420283274</v>
+        <v>28.06054272803108</v>
       </c>
       <c r="C9">
-        <v>20.81318737331798</v>
+        <v>21.51529495044536</v>
       </c>
       <c r="D9">
-        <v>4.821598844184241</v>
+        <v>4.446127603222657</v>
       </c>
       <c r="E9">
-        <v>7.526204310319054</v>
+        <v>7.454289433964526</v>
       </c>
       <c r="F9">
-        <v>38.99578843644598</v>
+        <v>35.45030017836467</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2.066929334668244</v>
+        <v>2.081460923500408</v>
       </c>
       <c r="I9">
-        <v>2.973517762610483</v>
+        <v>2.993416613739463</v>
       </c>
       <c r="J9">
-        <v>4.251792669778333</v>
+        <v>5.712301332179654</v>
       </c>
       <c r="K9">
-        <v>24.91775140949845</v>
+        <v>22.02871372217665</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>17.67066158564012</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>15.33992041942158</v>
       </c>
       <c r="N9">
-        <v>9.29053537038495</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>12.69327416591252</v>
+        <v>9.359098089371901</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>12.22056955131911</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.23316072120385</v>
+        <v>30.37693993343626</v>
       </c>
       <c r="C10">
-        <v>22.7978932513628</v>
+        <v>23.57573554823496</v>
       </c>
       <c r="D10">
-        <v>4.807691383983602</v>
+        <v>4.418192823730252</v>
       </c>
       <c r="E10">
-        <v>7.974746746671743</v>
+        <v>7.867283249462838</v>
       </c>
       <c r="F10">
-        <v>41.50129546962514</v>
+        <v>37.54310928533388</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2.567619287792895</v>
+        <v>2.530825515843197</v>
       </c>
       <c r="I10">
-        <v>3.421871884625472</v>
+        <v>3.383456928536996</v>
       </c>
       <c r="J10">
-        <v>4.251792669778333</v>
+        <v>5.744419754315621</v>
       </c>
       <c r="K10">
-        <v>25.9246432673356</v>
+        <v>22.68298802838109</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>17.82220127267183</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>16.27291851351637</v>
       </c>
       <c r="N10">
-        <v>9.776627409269702</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>12.39945360776055</v>
+        <v>9.82789404957534</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>11.91153934228476</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.34122428008934</v>
+        <v>30.56568250108057</v>
       </c>
       <c r="C11">
-        <v>23.71235006438515</v>
+        <v>24.46522758968285</v>
       </c>
       <c r="D11">
-        <v>4.605165738135907</v>
+        <v>4.335643144977908</v>
       </c>
       <c r="E11">
-        <v>8.103162792758743</v>
+        <v>8.05982391448012</v>
       </c>
       <c r="F11">
-        <v>40.4404478613714</v>
+        <v>36.61632145153081</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3.329385622082155</v>
+        <v>3.294275397694653</v>
       </c>
       <c r="I11">
-        <v>3.532359801343491</v>
+        <v>3.486077358343774</v>
       </c>
       <c r="J11">
-        <v>4.251792669778333</v>
+        <v>5.942780798806009</v>
       </c>
       <c r="K11">
-        <v>24.73820198964528</v>
+        <v>21.63299823167914</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>16.91100413517951</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>15.64302747137821</v>
       </c>
       <c r="N11">
-        <v>8.770733570717024</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>12.02972427541904</v>
+        <v>8.812149647164183</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>11.69444881259238</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.95364642628067</v>
+        <v>30.26897229310106</v>
       </c>
       <c r="C12">
-        <v>24.06429316667253</v>
+        <v>24.78114328601286</v>
       </c>
       <c r="D12">
-        <v>4.480674502734814</v>
+        <v>4.30958916547308</v>
       </c>
       <c r="E12">
-        <v>8.404875042085703</v>
+        <v>8.415770920087802</v>
       </c>
       <c r="F12">
-        <v>39.07421752850511</v>
+        <v>35.44573407866653</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.46412568225302</v>
+        <v>4.439978337587451</v>
       </c>
       <c r="I12">
-        <v>3.535908426388332</v>
+        <v>3.492561284479899</v>
       </c>
       <c r="J12">
-        <v>4.251792669778333</v>
+        <v>6.092466875987244</v>
       </c>
       <c r="K12">
-        <v>23.57165819854225</v>
+        <v>20.65296829024436</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>16.15429732081283</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>14.939670196478</v>
       </c>
       <c r="N12">
-        <v>7.847421255684973</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>11.83334214405524</v>
+        <v>7.882887998778819</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>11.61881112207766</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.0967948918496</v>
+        <v>29.53858396521634</v>
       </c>
       <c r="C13">
-        <v>24.03004076212562</v>
+        <v>24.69805659974051</v>
       </c>
       <c r="D13">
-        <v>4.403411235329321</v>
+        <v>4.319037727513439</v>
       </c>
       <c r="E13">
-        <v>8.826004213424763</v>
+        <v>8.883281859226262</v>
       </c>
       <c r="F13">
-        <v>37.27332635707977</v>
+        <v>33.91079502749151</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5.697193554972795</v>
+        <v>5.684057296064479</v>
       </c>
       <c r="I13">
-        <v>3.458926718614296</v>
+        <v>3.428764098283276</v>
       </c>
       <c r="J13">
-        <v>4.251792669778333</v>
+        <v>6.056017976358584</v>
       </c>
       <c r="K13">
-        <v>22.270291124373</v>
+        <v>19.59918407050894</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>15.41611442330226</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>14.08273217012662</v>
       </c>
       <c r="N13">
-        <v>6.927893982000863</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>11.74897701786824</v>
+        <v>6.960419450299149</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>11.63769748829458</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.26574415963863</v>
+        <v>28.81419770965658</v>
       </c>
       <c r="C14">
-        <v>23.83490170124986</v>
+        <v>24.46175359771963</v>
       </c>
       <c r="D14">
-        <v>4.376267431411689</v>
+        <v>4.344710788706636</v>
       </c>
       <c r="E14">
-        <v>9.19401022649963</v>
+        <v>9.277676534853066</v>
       </c>
       <c r="F14">
-        <v>35.78034167398677</v>
+        <v>32.63998517958084</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6.597712918269165</v>
+        <v>6.591131384678894</v>
       </c>
       <c r="I14">
-        <v>3.369875584437846</v>
+        <v>3.353757339560259</v>
       </c>
       <c r="J14">
-        <v>4.251792669778333</v>
+        <v>5.953276842055249</v>
       </c>
       <c r="K14">
-        <v>21.28212106048862</v>
+        <v>18.81571574410477</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>14.896588655523</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>13.40312717623671</v>
       </c>
       <c r="N14">
-        <v>6.299845779788191</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>11.74554706991936</v>
+        <v>6.331821771094116</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>11.69583763347605</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.95063432680726</v>
+        <v>28.53361086685822</v>
       </c>
       <c r="C15">
-        <v>23.70814148850569</v>
+        <v>24.32179056635039</v>
       </c>
       <c r="D15">
-        <v>4.374616565487214</v>
+        <v>4.354181600867657</v>
       </c>
       <c r="E15">
-        <v>9.273506046668327</v>
+        <v>9.363197538362753</v>
       </c>
       <c r="F15">
-        <v>35.30288961949474</v>
+        <v>32.23351874665293</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6.800904149116743</v>
+        <v>6.79632815006816</v>
       </c>
       <c r="I15">
-        <v>3.331125637610147</v>
+        <v>3.321217134061901</v>
       </c>
       <c r="J15">
-        <v>4.251792669778333</v>
+        <v>5.901744702168163</v>
       </c>
       <c r="K15">
-        <v>20.99935709697069</v>
+        <v>18.5974484332974</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>14.76270392882277</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>13.19696534685477</v>
       </c>
       <c r="N15">
-        <v>6.144335736734707</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>11.76201134918356</v>
+        <v>6.17716820276958</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>11.72490808785219</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.00320267356217</v>
+        <v>27.63491313629107</v>
       </c>
       <c r="C16">
-        <v>22.90872051992397</v>
+        <v>23.49634275429018</v>
       </c>
       <c r="D16">
-        <v>4.394655400203529</v>
+        <v>4.356968082908907</v>
       </c>
       <c r="E16">
-        <v>9.007975102313907</v>
+        <v>9.102058439118888</v>
       </c>
       <c r="F16">
-        <v>34.46246551013731</v>
+        <v>31.5312555882748</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6.507984945683702</v>
+        <v>6.509888214027848</v>
       </c>
       <c r="I16">
-        <v>3.157339969769961</v>
+        <v>3.170160680858803</v>
       </c>
       <c r="J16">
-        <v>4.251792669778333</v>
+        <v>5.738831790925769</v>
       </c>
       <c r="K16">
-        <v>20.764943224037</v>
+        <v>18.47783876965321</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>14.78918523153075</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>12.93185392897094</v>
       </c>
       <c r="N16">
-        <v>6.081496800596746</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>11.89885259589231</v>
+        <v>6.124260070864047</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>11.83818715831331</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.73454008846242</v>
+        <v>27.33704049612836</v>
       </c>
       <c r="C17">
-        <v>22.39137738267024</v>
+        <v>22.98187753517511</v>
       </c>
       <c r="D17">
-        <v>4.420440430840711</v>
+        <v>4.343964938567025</v>
       </c>
       <c r="E17">
-        <v>8.577291702955211</v>
+        <v>8.662480391560932</v>
       </c>
       <c r="F17">
-        <v>34.64039221751688</v>
+        <v>31.69311074433339</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>5.750372939738466</v>
+        <v>5.755402454983181</v>
       </c>
       <c r="I17">
-        <v>3.071078156036799</v>
+        <v>3.09407476348931</v>
       </c>
       <c r="J17">
-        <v>4.251792669778333</v>
+        <v>5.713305037326998</v>
       </c>
       <c r="K17">
-        <v>21.11992812536566</v>
+        <v>18.80870486114385</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>15.09406881668912</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>13.0958171110338</v>
       </c>
       <c r="N17">
-        <v>6.365273552221323</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>12.00263649670352</v>
+        <v>6.415447244044546</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>11.89466988020203</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.03925452196743</v>
+        <v>27.56872686324522</v>
       </c>
       <c r="C18">
-        <v>22.05866385778801</v>
+        <v>22.6783556767751</v>
       </c>
       <c r="D18">
-        <v>4.476080758596403</v>
+        <v>4.331963035046769</v>
       </c>
       <c r="E18">
-        <v>8.059836303542234</v>
+        <v>8.11752552355275</v>
       </c>
       <c r="F18">
-        <v>35.756513405196</v>
+        <v>32.65448357387706</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.545334559098978</v>
+        <v>4.551508840154916</v>
       </c>
       <c r="I18">
-        <v>3.050788961513967</v>
+        <v>3.072633747965939</v>
       </c>
       <c r="J18">
-        <v>4.251792669778333</v>
+        <v>5.711150574177133</v>
       </c>
       <c r="K18">
-        <v>22.05520820831374</v>
+        <v>19.59467043870281</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>15.70359006183097</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>13.66204334113911</v>
       </c>
       <c r="N18">
-        <v>7.02603499496832</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>12.11495581563366</v>
+        <v>7.081392439353065</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>11.92640697863838</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.73057646089119</v>
+        <v>28.14417245992509</v>
       </c>
       <c r="C19">
-        <v>21.9233522743339</v>
+        <v>22.58941696575235</v>
       </c>
       <c r="D19">
-        <v>4.576891087974559</v>
+        <v>4.345355221839129</v>
       </c>
       <c r="E19">
-        <v>7.704255308703221</v>
+        <v>7.711934094472192</v>
       </c>
       <c r="F19">
-        <v>37.42963602554679</v>
+        <v>34.08189874895184</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3.231177072093292</v>
+        <v>3.235217643414</v>
       </c>
       <c r="I19">
-        <v>3.095674215254475</v>
+        <v>3.10926427799452</v>
       </c>
       <c r="J19">
-        <v>4.251792669778333</v>
+        <v>5.711490394033151</v>
       </c>
       <c r="K19">
-        <v>23.31545628540448</v>
+        <v>20.62621476286817</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>16.47162360509432</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>14.45488915984494</v>
       </c>
       <c r="N19">
-        <v>7.983504167269301</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>12.2532370912371</v>
+        <v>8.041615729688056</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>11.9602580265845</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.51869140492341</v>
+        <v>29.70075899500221</v>
       </c>
       <c r="C20">
-        <v>22.31928469157465</v>
+        <v>23.07630746936895</v>
       </c>
       <c r="D20">
-        <v>4.795039923393672</v>
+        <v>4.417537131740228</v>
       </c>
       <c r="E20">
-        <v>7.848853499942784</v>
+        <v>7.752267815026219</v>
       </c>
       <c r="F20">
-        <v>40.690818080108</v>
+        <v>36.85146573978704</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>2.430290267006598</v>
+        <v>2.407581292192566</v>
       </c>
       <c r="I20">
-        <v>3.309632126897619</v>
+        <v>3.290410733853679</v>
       </c>
       <c r="J20">
-        <v>4.251792669778333</v>
+        <v>5.714445660903893</v>
       </c>
       <c r="K20">
-        <v>25.5326916414079</v>
+        <v>22.395829353519</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>17.69898493163839</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>15.93566312416443</v>
       </c>
       <c r="N20">
-        <v>9.64482541845369</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>12.45511499848287</v>
+        <v>9.700660033625603</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>11.98241775213144</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.55297458239303</v>
+        <v>31.59640629097656</v>
       </c>
       <c r="C21">
-        <v>23.77129217699234</v>
+        <v>24.59220252542504</v>
       </c>
       <c r="D21">
-        <v>4.823580800882416</v>
+        <v>4.412395254962746</v>
       </c>
       <c r="E21">
-        <v>8.242815710696938</v>
+        <v>8.104120766621016</v>
       </c>
       <c r="F21">
-        <v>42.97628448106828</v>
+        <v>38.77259116668578</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>2.836099479012077</v>
+        <v>2.771000781349685</v>
       </c>
       <c r="I21">
-        <v>3.664873578792253</v>
+        <v>3.597242880140879</v>
       </c>
       <c r="J21">
-        <v>4.251792669778333</v>
+        <v>6.072890156015649</v>
       </c>
       <c r="K21">
-        <v>26.60491397880761</v>
+        <v>23.14963244096051</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>17.99434904185361</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>16.85788788628577</v>
       </c>
       <c r="N21">
-        <v>10.22683714028812</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>12.27990049610287</v>
+        <v>10.26997630117407</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>11.76628485363681</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.82733970498973</v>
+        <v>32.76167595675594</v>
       </c>
       <c r="C22">
-        <v>24.68046030065283</v>
+        <v>25.53740328877673</v>
       </c>
       <c r="D22">
-        <v>4.835034856688467</v>
+        <v>4.405580774469191</v>
       </c>
       <c r="E22">
-        <v>8.484051776207052</v>
+        <v>8.322079421403314</v>
       </c>
       <c r="F22">
-        <v>44.37019318066992</v>
+        <v>39.94923003005705</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>3.091112302785061</v>
+        <v>2.99883178709507</v>
       </c>
       <c r="I22">
-        <v>3.888131748438114</v>
+        <v>3.788305953087207</v>
       </c>
       <c r="J22">
-        <v>4.251792669778333</v>
+        <v>6.613666634130162</v>
       </c>
       <c r="K22">
-        <v>27.2508630272145</v>
+        <v>23.60448578609191</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>18.15515285719697</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>17.43541396394502</v>
       </c>
       <c r="N22">
-        <v>10.52393051133437</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>12.1583711256021</v>
+        <v>10.55877771296602</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>11.62226825319195</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.17811582039682</v>
+        <v>32.16858509957623</v>
       </c>
       <c r="C23">
-        <v>24.18742550728588</v>
+        <v>25.02595281073676</v>
       </c>
       <c r="D23">
-        <v>4.835031618471893</v>
+        <v>4.412286395795238</v>
       </c>
       <c r="E23">
-        <v>8.358058153881274</v>
+        <v>8.208087930347865</v>
       </c>
       <c r="F23">
-        <v>43.68357339488944</v>
+        <v>39.37403928507068</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>2.957273150285921</v>
+        <v>2.879289006136776</v>
       </c>
       <c r="I23">
-        <v>3.767575589766714</v>
+        <v>3.68346297324035</v>
       </c>
       <c r="J23">
-        <v>4.251792669778333</v>
+        <v>6.216599296839348</v>
       </c>
       <c r="K23">
-        <v>26.95126395127071</v>
+        <v>23.40222563193067</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>18.09896361751331</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>17.15864622591257</v>
       </c>
       <c r="N23">
-        <v>10.36616367901722</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>12.23101705561773</v>
+        <v>10.4053845681716</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>11.70268641555566</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.61586346875158</v>
+        <v>29.78425468530206</v>
       </c>
       <c r="C24">
-        <v>22.2740403799739</v>
+        <v>23.03615271569379</v>
       </c>
       <c r="D24">
-        <v>4.82309506930948</v>
+        <v>4.430588890633872</v>
       </c>
       <c r="E24">
-        <v>7.873479995961742</v>
+        <v>7.769427680889915</v>
       </c>
       <c r="F24">
-        <v>40.93609855226084</v>
+        <v>37.06751471683967</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>2.441017234766078</v>
+        <v>2.417231483380594</v>
       </c>
       <c r="I24">
-        <v>3.309034349041429</v>
+        <v>3.286644348490491</v>
       </c>
       <c r="J24">
-        <v>4.251792669778333</v>
+        <v>5.713894566704329</v>
       </c>
       <c r="K24">
-        <v>25.73173989275181</v>
+        <v>22.56652575005273</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>17.82857440040183</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>16.06360456953025</v>
       </c>
       <c r="N24">
-        <v>9.750812774298247</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>12.49335252041985</v>
+        <v>9.80690705556138</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>12.00108887432994</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.67740110763697</v>
+        <v>27.08105608445138</v>
       </c>
       <c r="C25">
-        <v>20.07000067867415</v>
+        <v>20.73785894987233</v>
       </c>
       <c r="D25">
-        <v>4.805977632170697</v>
+        <v>4.445744739804071</v>
       </c>
       <c r="E25">
-        <v>7.341102217106259</v>
+        <v>7.286565104034739</v>
       </c>
       <c r="F25">
-        <v>37.84853709879661</v>
+        <v>34.48251229120783</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1.868722037488429</v>
+        <v>1.903249167680371</v>
       </c>
       <c r="I25">
-        <v>2.804900708456967</v>
+        <v>2.849505412387009</v>
       </c>
       <c r="J25">
-        <v>4.251792669778333</v>
+        <v>5.711175322947495</v>
       </c>
       <c r="K25">
-        <v>24.39058946850619</v>
+        <v>21.65580636549618</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>17.5125956498844</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>14.90184552053</v>
       </c>
       <c r="N25">
-        <v>9.049251606657107</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>12.77690669257228</v>
+        <v>9.124456546344888</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.32306797044484</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
